--- a/Product and Script summary.xlsx
+++ b/Product and Script summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19430" windowHeight="11030"/>
   </bookViews>
   <sheets>
     <sheet name="Data Input for Analysis" sheetId="24" r:id="rId1"/>
@@ -41,9 +41,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId9"/>
-    <pivotCache cacheId="40" r:id="rId10"/>
-    <pivotCache cacheId="41" r:id="rId11"/>
+    <pivotCache cacheId="9" r:id="rId9"/>
+    <pivotCache cacheId="10" r:id="rId10"/>
+    <pivotCache cacheId="11" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1403,14 +1403,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>from 2b</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>from 2c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Total_Word_Count</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1491,6 +1483,14 @@
   </si>
   <si>
     <t>Adj Factor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>from 1b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>from 1c</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7048,7 +7048,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D2:K26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -7212,7 +7212,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -7395,366 +7395,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="N2:Q31" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
-  <pivotFields count="5">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="61">
-        <item x="59"/>
-        <item x="60"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="57"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="18"/>
-        <item x="22"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="34"/>
-        <item x="38"/>
-        <item x="42"/>
-        <item x="46"/>
-        <item x="54"/>
-        <item x="58"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="19"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="35"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="47"/>
-        <item x="55"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="28"/>
-        <item x="32"/>
-        <item x="36"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="48"/>
-        <item x="56"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="33"/>
-        <item x="37"/>
-        <item x="41"/>
-        <item x="45"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="13"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="51">
-        <item h="1" x="50"/>
-        <item h="1" x="48"/>
-        <item h="1" x="40"/>
-        <item h="1" x="41"/>
-        <item h="1" x="42"/>
-        <item h="1" x="36"/>
-        <item h="1" x="24"/>
-        <item h="1" x="25"/>
-        <item h="1" x="30"/>
-        <item h="1" x="37"/>
-        <item h="1" x="39"/>
-        <item h="1" x="38"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="27"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="33"/>
-        <item h="1" x="35"/>
-        <item h="1" x="34"/>
-        <item h="1" x="32"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="10"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="44"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="23"/>
-        <item h="1" x="22"/>
-        <item h="1" x="0"/>
-        <item h="1" x="49"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="3"/>
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="29">
-    <i>
-      <x v="45"/>
-      <x v="6"/>
-      <x v="40"/>
-    </i>
-    <i r="2">
-      <x v="54"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="41"/>
-    </i>
-    <i r="2">
-      <x v="55"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="28"/>
-    </i>
-    <i r="2">
-      <x v="42"/>
-    </i>
-    <i r="2">
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="29"/>
-    </i>
-    <i r="2">
-      <x v="43"/>
-    </i>
-    <i r="2">
-      <x v="57"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="30"/>
-    </i>
-    <i r="2">
-      <x v="44"/>
-    </i>
-    <i r="2">
-      <x v="58"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="45"/>
-    </i>
-    <i r="2">
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="32"/>
-    </i>
-    <i r="2">
-      <x v="46"/>
-    </i>
-    <i r="2">
-      <x v="60"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="33"/>
-    </i>
-    <i r="2">
-      <x v="47"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Sales Quantity ( k Unit)" fld="4" baseField="2" baseItem="50"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="1" count="2" selected="0">
-            <x v="35"/>
-            <x v="49"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="1" count="2" selected="0">
-            <x v="8"/>
-            <x v="22"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="1" count="2" selected="0">
-            <x v="38"/>
-            <x v="52"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="1" count="2" selected="0">
-            <x v="11"/>
-            <x v="25"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="S2:V21" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8005,10 +7646,10 @@
     <dataField name="Sum of Sales Quantity ( k Unit)" fld="4" baseField="2" baseItem="50"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="9">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8024,7 +7665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8040,7 +7681,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8056,7 +7697,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8082,8 +7723,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="I2:L31" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8364,10 +8005,10 @@
     <dataField name="Sum of Sales Quantity ( k Unit)" fld="4" baseField="2" baseItem="50"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="14">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="8">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8383,7 +8024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="7">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8399,7 +8040,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="6">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8415,7 +8056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="5">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8441,8 +8082,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:D70" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8857,10 +8498,10 @@
     <dataField name="Sum of Sales Quantity ( k Unit)" fld="4" baseField="2" baseItem="50"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="19">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="13">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8876,7 +8517,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8892,7 +8533,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="11">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8908,7 +8549,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="10">
       <pivotArea outline="0" fieldPosition="0">
         <references count="3">
           <reference field="1" count="2" selected="0">
@@ -8934,8 +8575,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F2:G49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9259,8 +8900,367 @@
     <dataField name="Sum of Sales Quantity ( k Unit)" fld="4" baseField="2" baseItem="50"/>
   </dataFields>
   <formats count="1">
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="N2:Q31" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
+  <pivotFields count="5">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="61">
+        <item x="59"/>
+        <item x="60"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="57"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="22"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="34"/>
+        <item x="38"/>
+        <item x="42"/>
+        <item x="46"/>
+        <item x="54"/>
+        <item x="58"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="19"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="35"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="47"/>
+        <item x="55"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="32"/>
+        <item x="36"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="48"/>
+        <item x="56"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="33"/>
+        <item x="37"/>
+        <item x="41"/>
+        <item x="45"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="13"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="51">
+        <item h="1" x="50"/>
+        <item h="1" x="48"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item h="1" x="42"/>
+        <item h="1" x="36"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="30"/>
+        <item h="1" x="37"/>
+        <item h="1" x="39"/>
+        <item h="1" x="38"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="33"/>
+        <item h="1" x="35"/>
+        <item h="1" x="34"/>
+        <item h="1" x="32"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="10"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="44"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="23"/>
+        <item h="1" x="22"/>
+        <item h="1" x="0"/>
+        <item h="1" x="49"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="29">
+    <i>
+      <x v="45"/>
+      <x v="6"/>
+      <x v="40"/>
+    </i>
+    <i r="2">
+      <x v="54"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="27"/>
+    </i>
+    <i r="2">
+      <x v="41"/>
+    </i>
+    <i r="2">
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="28"/>
+    </i>
+    <i r="2">
+      <x v="42"/>
+    </i>
+    <i r="2">
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="29"/>
+    </i>
+    <i r="2">
+      <x v="43"/>
+    </i>
+    <i r="2">
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="30"/>
+    </i>
+    <i r="2">
+      <x v="44"/>
+    </i>
+    <i r="2">
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="31"/>
+    </i>
+    <i r="2">
+      <x v="45"/>
+    </i>
+    <i r="2">
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="32"/>
+    </i>
+    <i r="2">
+      <x v="46"/>
+    </i>
+    <i r="2">
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="33"/>
+    </i>
+    <i r="2">
+      <x v="47"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales Quantity ( k Unit)" fld="4" baseField="2" baseItem="50"/>
+  </dataFields>
+  <formats count="5">
     <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="2" selected="0">
+            <x v="35"/>
+            <x v="49"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="2" selected="0">
+            <x v="8"/>
+            <x v="22"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="2" selected="0">
+            <x v="38"/>
+            <x v="52"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="2" selected="0">
+            <x v="11"/>
+            <x v="25"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -9542,28 +9542,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="40.09765625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" style="44" customWidth="1"/>
     <col min="4" max="4" width="12" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" style="44" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.09765625" style="44" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.69921875" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.09765625" style="44" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" style="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="44"/>
+    <col min="17" max="16384" width="9.09765625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>262</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>273</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D1" s="68" t="s">
         <v>206</v>
@@ -9592,28 +9592,28 @@
         <v>211</v>
       </c>
       <c r="J1" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="K1" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="L1" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="M1" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="N1" s="70" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="O1" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="N1" s="70" t="s">
+      <c r="P1" s="70" t="s">
         <v>376</v>
       </c>
-      <c r="O1" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="P1" s="70" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>316</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>1.0872595483691107E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>318</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>1.7804154302670624E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>320</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>1.2345679012345678E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>321</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>8.6520947176684879E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
         <v>327</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>9.768009768009768E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
         <v>145</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>5.0951997854652726E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>146</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>5.3763440860215058E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
         <v>304</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>7.4937552039966698E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="66" t="s">
         <v>328</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>8.9063056644104032E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="66" t="s">
         <v>329</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>9.577379142596534E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>330</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>1.068486096807415E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="66" t="s">
         <v>331</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>5.0951997854652726E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="66" t="s">
         <v>149</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>8.3225448492694649E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="66" t="s">
         <v>332</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>1.282051282051282E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="66" t="s">
         <v>291</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>7.3569983446753725E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
         <v>333</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>7.2318200080353553E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="66" t="s">
         <v>334</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>1.1411332633788037E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="66" t="s">
         <v>166</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>1.3732221677292791E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="66" t="s">
         <v>296</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>7.0488096821385822E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="66" t="s">
         <v>367</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="66" t="s">
         <v>353</v>
       </c>
@@ -10978,9 +10978,9 @@
         <v>1.0092514718250631E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="66" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B23" s="82">
         <f>VLOOKUP(A23,'1d. Pivots for Regression'!$A$3:$B$25,2,0)</f>
@@ -11043,7 +11043,7 @@
         <v>3.0487804878048782E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="66" t="s">
         <v>365</v>
       </c>
@@ -11108,23 +11108,23 @@
         <v>1.0983910891089108E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B27" s="78">
         <f>SUM(B2:B5)/4</f>
@@ -11138,9 +11138,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B28" s="78">
         <f>SUM(B6:B10)/7</f>
@@ -11154,9 +11154,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B29" s="78">
         <f>SUM(B11:B20)/16</f>
@@ -11170,9 +11170,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B30" s="79">
         <f>SUM(B21:B22,B24)/3</f>
@@ -11186,9 +11186,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B31" s="44">
         <v>400</v>
@@ -11214,38 +11214,38 @@
   </sheetPr>
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.09765625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" style="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" style="44" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="44" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="44"/>
+    <col min="10" max="10" width="21.8984375" style="44" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.8984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.8984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.69921875" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.59765625" style="44" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.8984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.8984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.59765625" style="44" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.8984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.69921875" style="44" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.59765625" style="44" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.09765625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
         <v>288</v>
       </c>
@@ -11277,7 +11277,7 @@
       <c r="U1" s="84"/>
       <c r="V1" s="84"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>262</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>344</v>
       </c>
       <c r="J2" s="68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K2" s="70" t="s">
         <v>206</v>
@@ -11345,7 +11345,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>316</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>318</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>7.0588235294117646E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>320</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>5.4929577464788736E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
         <v>321</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>4.0339702760084924E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
         <v>327</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>4.3596730245231606E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>145</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>2.6462395543175487E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
         <v>146</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="66" t="s">
         <v>304</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>3.4951456310679613E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="66" t="s">
         <v>328</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>3.9872408293460927E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>329</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>4.2424242424242427E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="66" t="s">
         <v>330</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>4.9112426035502955E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="66" t="s">
         <v>331</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>2.6462395543175487E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="66" t="s">
         <v>149</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>3.6885245901639344E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="66" t="s">
         <v>332</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
         <v>291</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>3.484320557491289E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="66" t="s">
         <v>333</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>3.2766990291262135E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="66" t="s">
         <v>334</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>5.058139534883721E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="66" t="s">
         <v>166</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>5.6795131845841784E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="66" t="s">
         <v>296</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>3.1323877068557916E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="66" t="s">
         <v>367</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="66" t="s">
         <v>353</v>
       </c>
@@ -13214,9 +13214,9 @@
         <v>4.9180327868852458E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="66" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B24" s="67">
         <f>VLOOKUP(A24,'1d. Pivots for Regression'!$A$3:$B$25,2,0)</f>
@@ -13303,7 +13303,7 @@
         <v>1.4388489208633094E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="66" t="s">
         <v>365</v>
       </c>
@@ -13410,19 +13410,19 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="28" style="44" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="44"/>
+    <col min="3" max="3" width="19.59765625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="32.8984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.09765625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>205</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>212</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>213</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="116" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>214</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>215</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>31729.103591697651</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>216</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>14184.954644685338</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>217</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>218</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>144277.05684956754</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>219</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>220</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>221</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>77516.314313348688</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>222</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>233099.62092802228</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>352</v>
       </c>
@@ -13599,12 +13599,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="101.5" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>223</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C14" s="48">
         <f>SUM('2a. Data points'!L8:L11)</f>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="E14" s="75"/>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>224</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>225</v>
       </c>
@@ -13640,7 +13640,7 @@
       </c>
       <c r="D16" s="45"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>226</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>204719.62963994726</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>227</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>228</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>229</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>230</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>231</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>33144.720625245842</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>232</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>45054.369189322962</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>233</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>45054.369189322962</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>234</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>17700</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>235</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>17700</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>236</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>17700</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>237</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>17700</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>238</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>240434.05004524789</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>239</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>240434.05004524789</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>240</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>240434.05004524789</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>359</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>360</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>361</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>362</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
         <v>363</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>241</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
         <v>242</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>243</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>133766.83541655401</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>244</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>133766.83541655401</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>245</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>133766.83541655401</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
         <v>246</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>247</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>248</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
         <v>249</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>117998.57946903509</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
         <v>250</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>117998.57946903509</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
         <v>251</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>252</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
         <v>253</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
         <v>254</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
         <v>255</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
         <v>256</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>257</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A54" s="45" t="s">
         <v>258</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A55" s="45" t="s">
         <v>259</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
         <v>260</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
         <v>261</v>
       </c>
@@ -14191,22 +14191,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="44"/>
+    <col min="3" max="3" width="10.296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.09765625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>336</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="str">
         <f>VLOOKUP(B2,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Iphone</v>
@@ -14265,7 +14265,7 @@
         <v>6578</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="str">
         <f>VLOOKUP(B3,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPad</v>
@@ -14295,7 +14295,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="str">
         <f>VLOOKUP(B4,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Iphone 4</v>
@@ -14325,7 +14325,7 @@
         <v>7768</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="str">
         <f>VLOOKUP(B5,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPad 2</v>
@@ -14352,7 +14352,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="str">
         <f>VLOOKUP(B6,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Iphone 4S</v>
@@ -14379,7 +14379,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="str">
         <f>VLOOKUP(B7,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPad 4</v>
@@ -14409,7 +14409,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="str">
         <f>VLOOKUP(B8,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone 5</v>
@@ -14439,7 +14439,7 @@
         <v>5407</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="str">
         <f>VLOOKUP(B9,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Macbook Pro_2012</v>
@@ -14466,7 +14466,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="str">
         <f>VLOOKUP(B10,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPad Air + iPad Mini 2</v>
@@ -14496,7 +14496,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="str">
         <f>VLOOKUP(B11,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPad Air + iPad Mini 2</v>
@@ -14526,7 +14526,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="str">
         <f>VLOOKUP(B12,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone 5C + 5S</v>
@@ -14553,7 +14553,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="str">
         <f>VLOOKUP(B13,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Mac Pro_2013</v>
@@ -14583,7 +14583,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="str">
         <f>VLOOKUP(B14,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Macbook Pro_2013</v>
@@ -14610,7 +14610,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="str">
         <f>VLOOKUP(B15,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Apple Watch 2015</v>
@@ -14640,7 +14640,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="str">
         <f>VLOOKUP(B16,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone 6 + iPhone 6 Plus</v>
@@ -14670,7 +14670,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="str">
         <f>VLOOKUP(B17,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone 6 + iPhone 6 Plus</v>
@@ -14700,7 +14700,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="str">
         <f>VLOOKUP(B18,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Apple Watch 2015</v>
@@ -14730,7 +14730,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="str">
         <f>VLOOKUP(B19,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Apple Watch 2015</v>
@@ -14760,7 +14760,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="str">
         <f>VLOOKUP(B20,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Apple Watch 2016</v>
@@ -14790,7 +14790,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="str">
         <f>VLOOKUP(B21,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPad Pro 9.7 inch + 12.9 inch</v>
@@ -14820,7 +14820,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="str">
         <f>VLOOKUP(B22,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPad Pro 9.7 inch + 12.9 inch</v>
@@ -14850,7 +14850,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="str">
         <f>VLOOKUP(B23,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v xml:space="preserve">iPhone SE </v>
@@ -14877,7 +14877,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="str">
         <f>VLOOKUP(B24,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v xml:space="preserve">iPhone SE </v>
@@ -14907,7 +14907,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="64" t="str">
         <f>VLOOKUP(B25,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Apple Watch 2017</v>
@@ -14937,7 +14937,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="str">
         <f>VLOOKUP(B26,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Apple Watch 2017</v>
@@ -14967,7 +14967,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="64" t="str">
         <f>VLOOKUP(B27,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Apple Watch 2017</v>
@@ -14997,7 +14997,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="64" t="str">
         <f>VLOOKUP(B28,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Apple Watch 2017</v>
@@ -15024,7 +15024,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="64" t="str">
         <f>VLOOKUP(B29,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone 7 + iPhone 7 Plus</v>
@@ -15054,7 +15054,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="64" t="str">
         <f>VLOOKUP(B30,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone 7 + iPhone 7 Plus</v>
@@ -15081,7 +15081,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="64" t="str">
         <f>VLOOKUP(B31,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone 7 + iPhone 7 Plus</v>
@@ -15111,7 +15111,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="64" t="str">
         <f>VLOOKUP(B32,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Macbook Pro_2016</v>
@@ -15141,7 +15141,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="str">
         <f>VLOOKUP(B33,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Macbook Pro_2016</v>
@@ -15168,7 +15168,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="64" t="str">
         <f>VLOOKUP(B34,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Macbook Pro_2016</v>
@@ -15192,7 +15192,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="str">
         <f>VLOOKUP(B35,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Macbook Pro_2016</v>
@@ -15222,7 +15222,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="64" t="str">
         <f>VLOOKUP(B36,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Macbook Pro_2016</v>
@@ -15252,7 +15252,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="str">
         <f>VLOOKUP(B37,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Apple Watch 2018</v>
@@ -15282,7 +15282,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="str">
         <f>VLOOKUP(B38,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Apple Watch 2018</v>
@@ -15312,7 +15312,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="str">
         <f>VLOOKUP(B39,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone 8 + iPhone 8 Plus</v>
@@ -15342,7 +15342,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="64" t="str">
         <f>VLOOKUP(B40,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone 8 + iPhone 8 Plus</v>
@@ -15372,7 +15372,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="64" t="str">
         <f>VLOOKUP(B41,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone 8 + iPhone 8 Plus</v>
@@ -15402,7 +15402,7 @@
         <v>6071</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="64" t="str">
         <f>VLOOKUP(B42,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15432,7 +15432,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="64" t="str">
         <f>VLOOKUP(B43,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15462,7 +15462,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="str">
         <f>VLOOKUP(B44,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone XS + iPhone XR + iPhone XS Max</v>
@@ -15492,7 +15492,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="str">
         <f>VLOOKUP(B45,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone XS + iPhone XR + iPhone XS Max</v>
@@ -15519,7 +15519,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="str">
         <f>VLOOKUP(B46,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>iPhone XS + iPhone XR + iPhone XS Max</v>
@@ -15549,7 +15549,7 @@
         <v>5953</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="str">
         <f>VLOOKUP(B47,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15579,7 +15579,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="64" t="str">
         <f>VLOOKUP(B48,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15606,7 +15606,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="64" t="str">
         <f>VLOOKUP(B49,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15633,7 +15633,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="64" t="str">
         <f>VLOOKUP(B50,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15654,7 +15654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="str">
         <f>VLOOKUP(B51,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15684,7 +15684,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="64" t="str">
         <f>VLOOKUP(B52,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15711,7 +15711,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="64" t="str">
         <f>VLOOKUP(B53,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15738,7 +15738,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="64" t="str">
         <f>VLOOKUP(B54,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15765,7 +15765,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="64" t="str">
         <f>VLOOKUP(B55,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15795,7 +15795,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="str">
         <f>VLOOKUP(B56,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15825,7 +15825,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="64" t="str">
         <f>VLOOKUP(B57,'1b. Mapping Script counts'!$A:$B,2,0)</f>
         <v>Not used</v>
@@ -15866,33 +15866,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.09765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
@@ -15924,7 +15922,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>316</v>
       </c>
@@ -15956,7 +15954,7 @@
         <v>7174</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -15988,7 +15986,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>320</v>
       </c>
@@ -16020,7 +16018,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -16052,7 +16050,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>327</v>
       </c>
@@ -16084,7 +16082,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -16114,7 +16112,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -16146,7 +16144,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>304</v>
       </c>
@@ -16178,7 +16176,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>328</v>
       </c>
@@ -16210,7 +16208,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -16242,7 +16240,7 @@
         <v>6578</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -16274,7 +16272,7 @@
         <v>7768</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -16304,7 +16302,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -16336,7 +16334,7 @@
         <v>5407</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -16366,7 +16364,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -16398,7 +16396,7 @@
         <v>5437</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>333</v>
       </c>
@@ -16430,7 +16428,7 @@
         <v>7467</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>334</v>
       </c>
@@ -16462,7 +16460,7 @@
         <v>7624</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -16494,7 +16492,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -16526,7 +16524,7 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>367</v>
       </c>
@@ -16556,7 +16554,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>353</v>
       </c>
@@ -16588,7 +16586,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>365</v>
       </c>
@@ -16620,15 +16618,15 @@
         <v>6464</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B25">
         <v>7607.35</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E25" s="62">
         <v>72</v>
@@ -16650,7 +16648,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="63" t="s">
         <v>335</v>
       </c>
@@ -16693,30 +16691,30 @@
       <selection activeCell="V7" sqref="V7:V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" customWidth="1"/>
+    <col min="9" max="9" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.8984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>286</v>
       </c>
@@ -16733,7 +16731,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
@@ -16789,7 +16787,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -16845,7 +16843,7 @@
         <v>87.391304347826079</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -16901,7 +16899,7 @@
         <v>123.075</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -16957,7 +16955,7 @@
         <v>174.04285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -17013,7 +17011,7 @@
         <v>185.25</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -17072,7 +17070,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -17128,7 +17126,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -17184,7 +17182,7 @@
         <v>58.065789473684205</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -17238,7 +17236,7 @@
       </c>
       <c r="V10" s="37"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -17294,7 +17292,7 @@
         <v>71.675324675324674</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -17346,7 +17344,7 @@
         <v>138.27272727272728</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -17402,7 +17400,7 @@
         <v>248.06896551724137</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -17458,7 +17456,7 @@
         <v>236.0888888888889</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -17514,7 +17512,7 @@
         <v>55.260273972602739</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -17570,7 +17568,7 @@
         <v>206.69230769230771</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -17626,7 +17624,7 @@
         <v>65.609375</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -17682,7 +17680,7 @@
         <v>62.20289855072464</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -17738,7 +17736,7 @@
         <v>61.787878787878789</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -17794,7 +17792,7 @@
         <v>132.56666666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -17850,7 +17848,7 @@
         <v>215.53521126760563</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -17894,7 +17892,7 @@
         <v>590.484375</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -17938,7 +17936,7 @@
         <v>1368.463768115942</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -17982,7 +17980,7 @@
         <v>1170.8695652173913</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -18026,7 +18024,7 @@
         <v>1115.3454545454545</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -18070,7 +18068,7 @@
         <v>1050.3939393939393</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -18114,7 +18112,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -18158,7 +18156,7 @@
         <v>1093.4444444444443</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -18202,7 +18200,7 @@
         <v>662.83333333333326</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -18246,7 +18244,7 @@
         <v>1012.090909090909</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -18290,7 +18288,7 @@
         <v>933.98591549295782</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -18310,7 +18308,7 @@
         <v>77526.141635211679</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -18330,7 +18328,7 @@
         <v>130501.24654337244</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -18350,7 +18348,7 @@
         <v>74218.383096574835</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -18370,7 +18368,7 @@
         <v>140260.93450282904</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -18390,7 +18388,7 @@
         <v>100173.11554241885</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -18410,7 +18408,7 @@
         <v>66599.058166520204</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -18430,7 +18428,7 @@
         <v>67167.777250033818</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -18450,7 +18448,7 @@
         <v>45054.369189322962</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>141</v>
       </c>
@@ -18470,7 +18468,7 @@
         <v>37781.696747314272</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -18490,7 +18488,7 @@
         <v>73637.444928807818</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>141</v>
       </c>
@@ -18510,7 +18508,7 @@
         <v>17340.378366946585</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -18530,7 +18528,7 @@
         <v>27020.756173280683</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -18550,7 +18548,7 @@
         <v>2648.6509023634812</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -18570,7 +18568,7 @@
         <v>2307.3568978277644</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -18590,7 +18588,7 @@
         <v>13795.447783232139</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -18610,7 +18608,7 @@
         <v>29929.632521389576</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -18630,7 +18628,7 @@
         <v>56581.107320367089</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -18650,7 +18648,7 @@
         <v>11198.165077060163</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -18664,7 +18662,7 @@
         <v>10180</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -18678,7 +18676,7 @@
         <v>20970</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>141</v>
       </c>
@@ -18692,7 +18690,7 @@
         <v>10890</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -18706,7 +18704,7 @@
         <v>9410</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>141</v>
       </c>
@@ -18720,7 +18718,7 @@
         <v>9050</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>141</v>
       </c>
@@ -18734,7 +18732,7 @@
         <v>19450</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -18748,7 +18746,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -18762,7 +18760,7 @@
         <v>7540</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -18776,7 +18774,7 @@
         <v>6620</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -18790,7 +18788,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -18804,7 +18802,7 @@
         <v>7670</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -18818,7 +18816,7 @@
         <v>6750</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -18832,7 +18830,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>141</v>
       </c>
@@ -18846,7 +18844,7 @@
         <v>12680</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -18860,7 +18858,7 @@
         <v>5630</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -18874,7 +18872,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -18888,7 +18886,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -18902,7 +18900,7 @@
         <v>6050</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -18916,7 +18914,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -18930,7 +18928,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -18959,15 +18957,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" customWidth="1"/>
+    <col min="2" max="3" width="14.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="27.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -18984,7 +18982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
@@ -19002,7 +19000,7 @@
         <v>14040</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>3</v>
       </c>
@@ -19020,7 +19018,7 @@
         <v>8530</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>3</v>
       </c>
@@ -19038,7 +19036,7 @@
         <v>8109.9999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
@@ -19056,7 +19054,7 @@
         <v>8730</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -19074,7 +19072,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -19092,7 +19090,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>3</v>
       </c>
@@ -19110,7 +19108,7 @@
         <v>21070</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>3</v>
       </c>
@@ -19128,7 +19126,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>3</v>
       </c>
@@ -19146,7 +19144,7 @@
         <v>9820</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>3</v>
       </c>
@@ -19164,7 +19162,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -19182,7 +19180,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
@@ -19200,7 +19198,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -19218,7 +19216,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -19236,7 +19234,7 @@
         <v>6890</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>3</v>
       </c>
@@ -19254,7 +19252,7 @@
         <v>22120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>3</v>
       </c>
@@ -19272,7 +19270,7 @@
         <v>10640</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
         <v>3</v>
       </c>
@@ -19290,7 +19288,7 @@
         <v>11010</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>3</v>
       </c>
@@ -19308,7 +19306,7 @@
         <v>11050</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>3</v>
       </c>
@@ -19326,7 +19324,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
@@ -19344,7 +19342,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
@@ -19362,7 +19360,7 @@
         <v>5210</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
@@ -19380,7 +19378,7 @@
         <v>7370</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52" t="s">
         <v>3</v>
       </c>
@@ -19398,7 +19396,7 @@
         <v>22730</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="52" t="s">
         <v>3</v>
       </c>
@@ -19416,7 +19414,7 @@
         <v>11010</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52" t="s">
         <v>3</v>
       </c>
@@ -19434,7 +19432,7 @@
         <v>10220</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
         <v>3</v>
       </c>
@@ -19452,7 +19450,7 @@
         <v>10180</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>3</v>
       </c>
@@ -19470,7 +19468,7 @@
         <v>8740</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
@@ -19488,7 +19486,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -19506,7 +19504,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>3</v>
       </c>
@@ -19524,7 +19522,7 @@
         <v>14100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>3</v>
       </c>
@@ -19542,7 +19540,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>3</v>
       </c>
@@ -19560,7 +19558,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="52" t="s">
         <v>3</v>
       </c>
@@ -19578,7 +19576,7 @@
         <v>20970</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="52" t="s">
         <v>3</v>
       </c>
@@ -19596,7 +19594,7 @@
         <v>10890</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
         <v>3</v>
       </c>
@@ -19614,7 +19612,7 @@
         <v>9410</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="52" t="s">
         <v>3</v>
       </c>
@@ -19632,7 +19630,7 @@
         <v>9050</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>3</v>
       </c>
@@ -19650,7 +19648,7 @@
         <v>16239.999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>3</v>
       </c>
@@ -19668,7 +19666,7 @@
         <v>18650</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>3</v>
       </c>
@@ -19686,7 +19684,7 @@
         <v>20340</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>3</v>
       </c>
@@ -19704,7 +19702,7 @@
         <v>17070</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>3</v>
       </c>
@@ -19722,7 +19720,7 @@
         <v>7330</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>3</v>
       </c>
@@ -19740,7 +19738,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>3</v>
       </c>
@@ -19758,7 +19756,7 @@
         <v>9250</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>3</v>
       </c>
@@ -19776,7 +19774,7 @@
         <v>11120</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="52" t="s">
         <v>3</v>
       </c>
@@ -19794,7 +19792,7 @@
         <v>19450</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="52" t="s">
         <v>3</v>
       </c>
@@ -19812,7 +19810,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="52" t="s">
         <v>3</v>
       </c>
@@ -19830,7 +19828,7 @@
         <v>7540</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="52" t="s">
         <v>3</v>
       </c>
@@ -19848,7 +19846,7 @@
         <v>6620</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>3</v>
       </c>
@@ -19866,7 +19864,7 @@
         <v>37040</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>3</v>
       </c>
@@ -19884,7 +19882,7 @@
         <v>35060</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>3</v>
       </c>
@@ -19902,7 +19900,7 @@
         <v>329.65517241379308</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>3</v>
       </c>
@@ -19920,7 +19918,7 @@
         <v>13778.048780487808</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>3</v>
       </c>
@@ -19938,7 +19936,7 @@
         <v>13121.951219512204</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>3</v>
       </c>
@@ -19956,7 +19954,7 @@
         <v>47470.344827586203</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>3</v>
       </c>
@@ -19974,7 +19972,7 @@
         <v>15430</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>3</v>
       </c>
@@ -19992,7 +19990,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>3</v>
       </c>
@@ -20010,7 +20008,7 @@
         <v>7401.2738853503188</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>3</v>
       </c>
@@ -20028,7 +20026,7 @@
         <v>3796.8911917098449</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>3</v>
       </c>
@@ -20046,7 +20044,7 @@
         <v>6420.3821656050959</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>3</v>
       </c>
@@ -20064,7 +20062,7 @@
         <v>8187.0466321243521</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
         <v>3</v>
       </c>
@@ -20082,7 +20080,7 @@
         <v>6169.9481865284979</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>3</v>
       </c>
@@ -20100,7 +20098,7 @@
         <v>4271.5025906735755</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>3</v>
       </c>
@@ -20118,7 +20116,7 @@
         <v>178.343949044586</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>3</v>
       </c>
@@ -20136,7 +20134,7 @@
         <v>474.61139896373061</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>3</v>
       </c>
@@ -20154,7 +20152,7 @@
         <v>349.56521739130432</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>3</v>
       </c>
@@ -20172,7 +20170,7 @@
         <v>492.3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>3</v>
       </c>
@@ -20190,7 +20188,7 @@
         <v>87.391304347826079</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>3</v>
       </c>
@@ -20208,7 +20206,7 @@
         <v>123.075</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>3</v>
       </c>
@@ -20226,7 +20224,7 @@
         <v>123.075</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>3</v>
       </c>
@@ -20244,7 +20242,7 @@
         <v>492.3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>3</v>
       </c>
@@ -20262,7 +20260,7 @@
         <v>1922.608695652174</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>3</v>
       </c>
@@ -20280,7 +20278,7 @@
         <v>984.6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>3</v>
       </c>
@@ -20298,7 +20296,7 @@
         <v>1660.4347826086957</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>3</v>
       </c>
@@ -20316,7 +20314,7 @@
         <v>2707.65</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="52" t="s">
         <v>3</v>
       </c>
@@ -20334,7 +20332,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="52" t="s">
         <v>3</v>
       </c>
@@ -20352,7 +20350,7 @@
         <v>7670</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="52" t="s">
         <v>3</v>
       </c>
@@ -20370,7 +20368,7 @@
         <v>6750</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="52" t="s">
         <v>3</v>
       </c>
@@ -20388,7 +20386,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>3</v>
       </c>
@@ -20406,7 +20404,7 @@
         <v>230.86419753086417</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>3</v>
       </c>
@@ -20424,7 +20422,7 @@
         <v>176.04166666666666</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>3</v>
       </c>
@@ -20442,7 +20440,7 @@
         <v>37169.135802469136</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>3</v>
       </c>
@@ -20460,7 +20458,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>3</v>
       </c>
@@ -20478,7 +20476,7 @@
         <v>15315.625000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>3</v>
       </c>
@@ -20496,7 +20494,7 @@
         <v>5457.291666666667</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>3</v>
       </c>
@@ -20514,7 +20512,7 @@
         <v>15827.586206896549</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>3</v>
       </c>
@@ -20532,7 +20530,7 @@
         <v>12851.041666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>3</v>
       </c>
@@ -20550,7 +20548,7 @@
         <v>35172.413793103442</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>3</v>
       </c>
@@ -20568,7 +20566,7 @@
         <v>6372.5490196078435</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>3</v>
       </c>
@@ -20586,7 +20584,7 @@
         <v>5008.1395348837214</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>3</v>
       </c>
@@ -20604,7 +20602,7 @@
         <v>3060.4651162790697</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
         <v>3</v>
       </c>
@@ -20622,7 +20620,7 @@
         <v>1211.8644067796611</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
         <v>3</v>
       </c>
@@ -20640,7 +20638,7 @@
         <v>6754.9019607843138</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>3</v>
       </c>
@@ -20658,7 +20656,7 @@
         <v>4583.7209302325582</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>3</v>
       </c>
@@ -20676,7 +20674,7 @@
         <v>6339.5348837209312</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>3</v>
       </c>
@@ -20694,7 +20692,7 @@
         <v>3084.7457627118647</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
         <v>3</v>
       </c>
@@ -20712,7 +20710,7 @@
         <v>4296.6101694915251</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16" t="s">
         <v>3</v>
       </c>
@@ -20730,7 +20728,7 @@
         <v>6372.5490196078435</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
         <v>3</v>
       </c>
@@ -20748,7 +20746,7 @@
         <v>4923.2558139534885</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
         <v>3</v>
       </c>
@@ -20766,7 +20764,7 @@
         <v>4481.395348837209</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>3</v>
       </c>
@@ -20784,7 +20782,7 @@
         <v>6389.8305084745771</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16" t="s">
         <v>3</v>
       </c>
@@ -20802,7 +20800,7 @@
         <v>10355.93220338983</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16" t="s">
         <v>3</v>
       </c>
@@ -20820,7 +20818,7 @@
         <v>84.883720930232556</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
         <v>3</v>
       </c>
@@ -20838,7 +20836,7 @@
         <v>218.6046511627907</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16" t="s">
         <v>3</v>
       </c>
@@ -20856,7 +20854,7 @@
         <v>661.01694915254234</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="20" t="s">
         <v>3</v>
       </c>
@@ -20874,7 +20872,7 @@
         <v>1102.2714285714285</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
         <v>3</v>
       </c>
@@ -20892,7 +20890,7 @@
         <v>432.25</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="20" t="s">
         <v>3</v>
       </c>
@@ -20910,7 +20908,7 @@
         <v>469.25</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
         <v>3</v>
       </c>
@@ -20928,7 +20926,7 @@
         <v>1715.25</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
         <v>3</v>
       </c>
@@ -20946,7 +20944,7 @@
         <v>174.04285714285714</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
         <v>3</v>
       </c>
@@ -20964,7 +20962,7 @@
         <v>185.25</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="20" t="s">
         <v>3</v>
       </c>
@@ -20982,7 +20980,7 @@
         <v>134.07142857142856</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="20" t="s">
         <v>3</v>
       </c>
@@ -21000,7 +20998,7 @@
         <v>116.02857142857142</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
         <v>3</v>
       </c>
@@ -21018,7 +21016,7 @@
         <v>61.75</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
         <v>3</v>
       </c>
@@ -21036,7 +21034,7 @@
         <v>134.07142857142856</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
         <v>3</v>
       </c>
@@ -21054,7 +21052,7 @@
         <v>116.02857142857142</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
         <v>3</v>
       </c>
@@ -21072,7 +21070,7 @@
         <v>190.58333333333331</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
         <v>3</v>
       </c>
@@ -21090,7 +21088,7 @@
         <v>580.14285714285711</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
         <v>3</v>
       </c>
@@ -21108,7 +21106,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
         <v>3</v>
       </c>
@@ -21126,7 +21124,7 @@
         <v>1206.6428571428573</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
         <v>3</v>
       </c>
@@ -21144,7 +21142,7 @@
         <v>1334.0833333333335</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="20" t="s">
         <v>3</v>
       </c>
@@ -21162,7 +21160,7 @@
         <v>1972.4857142857143</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="20" t="s">
         <v>3</v>
       </c>
@@ -21180,7 +21178,7 @@
         <v>2284.75</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="20" t="s">
         <v>3</v>
       </c>
@@ -21198,7 +21196,7 @@
         <v>1809.9642857142858</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
         <v>3</v>
       </c>
@@ -21216,7 +21214,7 @@
         <v>1334.0833333333335</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="52" t="s">
         <v>3</v>
       </c>
@@ -21234,7 +21232,7 @@
         <v>12680</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="52" t="s">
         <v>3</v>
       </c>
@@ -21252,7 +21250,7 @@
         <v>5630</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="52" t="s">
         <v>3</v>
       </c>
@@ -21270,7 +21268,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="52" t="s">
         <v>3</v>
       </c>
@@ -21288,7 +21286,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="54" t="s">
         <v>3</v>
       </c>
@@ -21306,7 +21304,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>3</v>
       </c>
@@ -21324,7 +21322,7 @@
         <v>12338.823529411764</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>3</v>
       </c>
@@ -21342,7 +21340,7 @@
         <v>9152</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>3</v>
       </c>
@@ -21360,7 +21358,7 @@
         <v>7108.8737201365184</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
         <v>3</v>
       </c>
@@ -21378,7 +21376,7 @@
         <v>8277.7777777777792</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>3</v>
       </c>
@@ -21396,7 +21394,7 @@
         <v>31361.176470588234</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>3</v>
       </c>
@@ -21414,7 +21412,7 @@
         <v>26047.999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>3</v>
       </c>
@@ -21432,7 +21430,7 @@
         <v>13278.839590443687</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>3</v>
       </c>
@@ -21450,7 +21448,7 @@
         <v>11633.633633633632</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
         <v>3</v>
       </c>
@@ -21468,7 +21466,7 @@
         <v>13547.098976109215</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>3</v>
       </c>
@@ -21486,7 +21484,7 @@
         <v>32663.663663663665</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>3</v>
       </c>
@@ -21504,7 +21502,7 @@
         <v>5365.18771331058</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>3</v>
       </c>
@@ -21522,7 +21520,7 @@
         <v>21924.924924924922</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="16" t="s">
         <v>3</v>
       </c>
@@ -21540,7 +21538,7 @@
         <v>1468.65671641791</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="16" t="s">
         <v>3</v>
       </c>
@@ -21558,7 +21556,7 @@
         <v>611.94029850746267</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="16" t="s">
         <v>3</v>
       </c>
@@ -21576,7 +21574,7 @@
         <v>1349.2753623188407</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="16" t="s">
         <v>3</v>
       </c>
@@ -21594,7 +21592,7 @@
         <v>1476.0000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="16" t="s">
         <v>3</v>
       </c>
@@ -21612,7 +21610,7 @@
         <v>4168.8311688311687</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
         <v>3</v>
       </c>
@@ -21630,7 +21628,7 @@
         <v>3426.86567164179</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
         <v>3</v>
       </c>
@@ -21648,7 +21646,7 @@
         <v>2313.0434782608695</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="16" t="s">
         <v>3</v>
       </c>
@@ -21666,7 +21664,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
         <v>3</v>
       </c>
@@ -21684,7 +21682,7 @@
         <v>2223.3766233766237</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="16" t="s">
         <v>3</v>
       </c>
@@ -21702,7 +21700,7 @@
         <v>1250.6493506493507</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
         <v>3</v>
       </c>
@@ -21720,7 +21718,7 @@
         <v>3059.7014925373132</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="16" t="s">
         <v>3</v>
       </c>
@@ -21738,7 +21736,7 @@
         <v>2505.7971014492755</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="16" t="s">
         <v>3</v>
       </c>
@@ -21756,7 +21754,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="16" t="s">
         <v>3</v>
       </c>
@@ -21774,7 +21772,7 @@
         <v>3057.1428571428569</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="16" t="s">
         <v>3</v>
       </c>
@@ -21792,7 +21790,7 @@
         <v>7588.059701492537</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="16" t="s">
         <v>3</v>
       </c>
@@ -21810,7 +21808,7 @@
         <v>6746.376811594203</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="16" t="s">
         <v>3</v>
       </c>
@@ -21828,7 +21826,7 @@
         <v>6273</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="16" t="s">
         <v>3</v>
       </c>
@@ -21846,7 +21844,7 @@
         <v>4585.7142857142862</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="16" t="s">
         <v>3</v>
       </c>
@@ -21864,7 +21862,7 @@
         <v>5975.3246753246749</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="16" t="s">
         <v>3</v>
       </c>
@@ -21882,7 +21880,7 @@
         <v>244.77611940298507</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="16" t="s">
         <v>3</v>
       </c>
@@ -21900,7 +21898,7 @@
         <v>385.50724637681162</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16" t="s">
         <v>3</v>
       </c>
@@ -21918,7 +21916,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="16" t="s">
         <v>3</v>
       </c>
@@ -21936,7 +21934,7 @@
         <v>138.96103896103898</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="20" t="s">
         <v>3</v>
       </c>
@@ -21954,7 +21952,7 @@
         <v>1128.6333333333334</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="s">
         <v>3</v>
       </c>
@@ -21972,7 +21970,7 @@
         <v>1085.7</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="20" t="s">
         <v>3</v>
       </c>
@@ -21990,7 +21988,7 @@
         <v>987.11842105263156</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="20" t="s">
         <v>3</v>
       </c>
@@ -22006,7 +22004,7 @@
       </c>
       <c r="E169" s="23"/>
     </row>
-    <row r="170" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="20" t="s">
         <v>3</v>
       </c>
@@ -22024,7 +22022,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="20" t="s">
         <v>3</v>
       </c>
@@ -22042,7 +22040,7 @@
         <v>58.065789473684205</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="20" t="s">
         <v>3</v>
       </c>
@@ -22058,7 +22056,7 @@
       </c>
       <c r="E172" s="23"/>
     </row>
-    <row r="173" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="20" t="s">
         <v>3</v>
       </c>
@@ -22076,7 +22074,7 @@
         <v>403.08333333333331</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="20" t="s">
         <v>3</v>
       </c>
@@ -22094,7 +22092,7 @@
         <v>206.8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="20" t="s">
         <v>3</v>
       </c>
@@ -22112,7 +22110,7 @@
         <v>58.065789473684205</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="20" t="s">
         <v>3</v>
       </c>
@@ -22128,7 +22126,7 @@
       </c>
       <c r="E176" s="23"/>
     </row>
-    <row r="177" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="20" t="s">
         <v>3</v>
       </c>
@@ -22144,7 +22142,7 @@
       </c>
       <c r="E177" s="23"/>
     </row>
-    <row r="178" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="s">
         <v>3</v>
       </c>
@@ -22162,7 +22160,7 @@
         <v>1048.0166666666667</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="20" t="s">
         <v>3</v>
       </c>
@@ -22180,7 +22178,7 @@
         <v>982.3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="20" t="s">
         <v>3</v>
       </c>
@@ -22198,7 +22196,7 @@
         <v>1103.25</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="20" t="s">
         <v>3</v>
       </c>
@@ -22214,7 +22212,7 @@
       </c>
       <c r="E181" s="23"/>
     </row>
-    <row r="182" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="20" t="s">
         <v>3</v>
       </c>
@@ -22232,7 +22230,7 @@
         <v>2257.2666666666669</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="s">
         <v>3</v>
       </c>
@@ -22250,7 +22248,7 @@
         <v>1809.5</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="20" t="s">
         <v>3</v>
       </c>
@@ -22268,7 +22266,7 @@
         <v>2206.5</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="20" t="s">
         <v>3</v>
       </c>
@@ -22284,7 +22282,7 @@
       </c>
       <c r="E185" s="23"/>
     </row>
-    <row r="186" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="52" t="s">
         <v>3</v>
       </c>
@@ -22302,7 +22300,7 @@
         <v>6050</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="52" t="s">
         <v>3</v>
       </c>
@@ -22320,7 +22318,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="52" t="s">
         <v>3</v>
       </c>
@@ -22338,7 +22336,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="52" t="s">
         <v>3</v>
       </c>
@@ -22356,7 +22354,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="54" t="s">
         <v>3</v>
       </c>
@@ -22374,7 +22372,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
         <v>3</v>
       </c>
@@ -22392,7 +22390,7 @@
         <v>5941.7475728155341</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>3</v>
       </c>
@@ -22410,7 +22408,7 @@
         <v>3156.1461794019929</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>3</v>
       </c>
@@ -22428,7 +22426,7 @@
         <v>2337.0786516853932</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>3</v>
       </c>
@@ -22446,7 +22444,7 @@
         <v>8912.6213592233016</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>3</v>
       </c>
@@ -22464,7 +22462,7 @@
         <v>5523.2558139534876</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>3</v>
       </c>
@@ -22482,7 +22480,7 @@
         <v>5932.5842696629215</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>3</v>
       </c>
@@ -22500,7 +22498,7 @@
         <v>8154.8872180451126</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>3</v>
       </c>
@@ -22518,7 +22516,7 @@
         <v>33471.844660194169</v>
       </c>
     </row>
-    <row r="199" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>3</v>
       </c>
@@ -22536,7 +22534,7 @@
         <v>24933.554817275748</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>3</v>
       </c>
@@ -22554,7 +22552,7 @@
         <v>18876.404494382023</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>3</v>
       </c>
@@ -22572,7 +22570,7 @@
         <v>11248.12030075188</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
         <v>3</v>
       </c>
@@ -22590,7 +22588,7 @@
         <v>12873.786407766991</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>3</v>
       </c>
@@ -22608,7 +22606,7 @@
         <v>13887.043189368773</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>3</v>
       </c>
@@ -22626,7 +22624,7 @@
         <v>9168.5393258426957</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>3</v>
       </c>
@@ -22644,7 +22642,7 @@
         <v>5342.8571428571422</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
         <v>3</v>
       </c>
@@ -22662,7 +22660,7 @@
         <v>7730.3370786516853</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
         <v>3</v>
       </c>
@@ -22680,7 +22678,7 @@
         <v>35712.781954887214</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
         <v>3</v>
       </c>
@@ -22698,7 +22696,7 @@
         <v>3955.0561797752807</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>3</v>
       </c>
@@ -22716,7 +22714,7 @@
         <v>14341.353383458645</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="16" t="s">
         <v>3</v>
       </c>
@@ -22734,7 +22732,7 @@
         <v>1376.4705882352941</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="16" t="s">
         <v>3</v>
       </c>
@@ -22752,7 +22750,7 @@
         <v>1270.5882352941176</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="16" t="s">
         <v>3</v>
       </c>
@@ -22770,7 +22768,7 @@
         <v>1137.9310344827586</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="16" t="s">
         <v>3</v>
       </c>
@@ -22788,7 +22786,7 @@
         <v>1747.0588235294117</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="16" t="s">
         <v>3</v>
       </c>
@@ -22806,7 +22804,7 @@
         <v>3632.3170731707323</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="16" t="s">
         <v>3</v>
       </c>
@@ -22824,7 +22822,7 @@
         <v>1482.3529411764705</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="16" t="s">
         <v>3</v>
       </c>
@@ -22842,7 +22840,7 @@
         <v>1137.9310344827586</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="16" t="s">
         <v>3</v>
       </c>
@@ -22860,7 +22858,7 @@
         <v>1164.7058823529412</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="16" t="s">
         <v>3</v>
       </c>
@@ -22878,7 +22876,7 @@
         <v>883.53658536585351</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="16" t="s">
         <v>3</v>
       </c>
@@ -22896,7 +22894,7 @@
         <v>998.31932773109247</v>
       </c>
     </row>
-    <row r="220" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="16" t="s">
         <v>3</v>
       </c>
@@ -22914,7 +22912,7 @@
         <v>2650.6097560975613</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="16" t="s">
         <v>3</v>
       </c>
@@ -22932,7 +22930,7 @@
         <v>1376.4705882352941</v>
       </c>
     </row>
-    <row r="222" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="16" t="s">
         <v>3</v>
       </c>
@@ -22950,7 +22948,7 @@
         <v>1517.2413793103449</v>
       </c>
     </row>
-    <row r="223" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="16" t="s">
         <v>3</v>
       </c>
@@ -22968,7 +22966,7 @@
         <v>1865.2439024390242</v>
       </c>
     </row>
-    <row r="224" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="16" t="s">
         <v>3</v>
       </c>
@@ -22986,7 +22984,7 @@
         <v>2435.2941176470586</v>
       </c>
     </row>
-    <row r="225" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="16" t="s">
         <v>3</v>
       </c>
@@ -23004,7 +23002,7 @@
         <v>1896.5517241379312</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="16" t="s">
         <v>3</v>
       </c>
@@ -23022,7 +23020,7 @@
         <v>2246.2184873949577</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="16" t="s">
         <v>3</v>
       </c>
@@ -23040,7 +23038,7 @@
         <v>2061.5853658536585</v>
       </c>
     </row>
-    <row r="228" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="16" t="s">
         <v>3</v>
       </c>
@@ -23058,7 +23056,7 @@
         <v>4447.0588235294117</v>
       </c>
     </row>
-    <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="16" t="s">
         <v>3</v>
       </c>
@@ -23076,7 +23074,7 @@
         <v>4678.1609195402298</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="16" t="s">
         <v>3</v>
       </c>
@@ -23094,7 +23092,7 @@
         <v>3327.7310924369744</v>
       </c>
     </row>
-    <row r="231" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="16" t="s">
         <v>3</v>
       </c>
@@ -23112,7 +23110,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="232" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="16" t="s">
         <v>3</v>
       </c>
@@ -23130,7 +23128,7 @@
         <v>211.76470588235293</v>
       </c>
     </row>
-    <row r="233" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="16" t="s">
         <v>3</v>
       </c>
@@ -23148,7 +23146,7 @@
         <v>632.18390804597698</v>
       </c>
     </row>
-    <row r="234" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="16" t="s">
         <v>3</v>
       </c>
@@ -23166,7 +23164,7 @@
         <v>415.96638655462181</v>
       </c>
     </row>
-    <row r="235" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="16" t="s">
         <v>3</v>
       </c>
@@ -23184,7 +23182,7 @@
         <v>981.70731707317066</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20" t="s">
         <v>3</v>
       </c>
@@ -23202,7 +23200,7 @@
         <v>1003.4545454545455</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20" t="s">
         <v>3</v>
       </c>
@@ -23220,7 +23218,7 @@
         <v>829.63636363636363</v>
       </c>
     </row>
-    <row r="238" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20" t="s">
         <v>3</v>
       </c>
@@ -23238,7 +23236,7 @@
         <v>248.06896551724137</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20" t="s">
         <v>3</v>
       </c>
@@ -23256,7 +23254,7 @@
         <v>1610.2307692307693</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20" t="s">
         <v>3</v>
       </c>
@@ -23274,7 +23272,7 @@
         <v>71.675324675324674</v>
       </c>
     </row>
-    <row r="241" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20" t="s">
         <v>3</v>
       </c>
@@ -23292,7 +23290,7 @@
         <v>138.27272727272728</v>
       </c>
     </row>
-    <row r="242" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20" t="s">
         <v>3</v>
       </c>
@@ -23310,7 +23308,7 @@
         <v>248.06896551724137</v>
       </c>
     </row>
-    <row r="243" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20" t="s">
         <v>3</v>
       </c>
@@ -23328,7 +23326,7 @@
         <v>215.02597402597402</v>
       </c>
     </row>
-    <row r="244" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20" t="s">
         <v>3</v>
       </c>
@@ -23346,7 +23344,7 @@
         <v>138.27272727272728</v>
       </c>
     </row>
-    <row r="245" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20" t="s">
         <v>3</v>
       </c>
@@ -23364,7 +23362,7 @@
         <v>992.27586206896547</v>
       </c>
     </row>
-    <row r="246" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20" t="s">
         <v>3</v>
       </c>
@@ -23382,7 +23380,7 @@
         <v>878.30769230769238</v>
       </c>
     </row>
-    <row r="247" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20" t="s">
         <v>3</v>
       </c>
@@ -23400,7 +23398,7 @@
         <v>1146.8051948051948</v>
       </c>
     </row>
-    <row r="248" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20" t="s">
         <v>3</v>
       </c>
@@ -23418,7 +23416,7 @@
         <v>967.90909090909099</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20" t="s">
         <v>3</v>
       </c>
@@ -23436,7 +23434,7 @@
         <v>1488.4137931034484</v>
       </c>
     </row>
-    <row r="250" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20" t="s">
         <v>3</v>
       </c>
@@ -23454,7 +23452,7 @@
         <v>1024.6923076923076</v>
       </c>
     </row>
-    <row r="251" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="s">
         <v>3</v>
       </c>
@@ -23472,7 +23470,7 @@
         <v>3082.0389610389607</v>
       </c>
     </row>
-    <row r="252" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="20" t="s">
         <v>3</v>
       </c>
@@ -23490,7 +23488,7 @@
         <v>2488.9090909090905</v>
       </c>
     </row>
-    <row r="253" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="20" t="s">
         <v>3</v>
       </c>
@@ -23508,7 +23506,7 @@
         <v>1819.1724137931033</v>
       </c>
     </row>
-    <row r="254" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="20" t="s">
         <v>3</v>
       </c>
@@ -23526,7 +23524,7 @@
         <v>2195.7692307692309</v>
       </c>
     </row>
-    <row r="255" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="24" t="s">
         <v>3</v>
       </c>
@@ -23544,7 +23542,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="256" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="54" t="s">
         <v>3</v>
       </c>
@@ -23562,7 +23560,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="257" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="s">
         <v>3</v>
       </c>
@@ -23580,7 +23578,7 @@
         <v>2950.5084745762711</v>
       </c>
     </row>
-    <row r="258" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>3</v>
       </c>
@@ -23598,7 +23596,7 @@
         <v>1683.3333333333333</v>
       </c>
     </row>
-    <row r="259" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="12" t="s">
         <v>3</v>
       </c>
@@ -23616,7 +23614,7 @@
         <v>6768.8135593220341</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="12" t="s">
         <v>3</v>
       </c>
@@ -23634,7 +23632,7 @@
         <v>3703.333333333333</v>
       </c>
     </row>
-    <row r="261" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
         <v>3</v>
       </c>
@@ -23652,7 +23650,7 @@
         <v>3153.4653465346537</v>
       </c>
     </row>
-    <row r="262" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="s">
         <v>3</v>
       </c>
@@ -23670,7 +23668,7 @@
         <v>4859.6610169491523</v>
       </c>
     </row>
-    <row r="263" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
         <v>3</v>
       </c>
@@ -23688,7 +23686,7 @@
         <v>1851.6666666666667</v>
       </c>
     </row>
-    <row r="264" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
         <v>3</v>
       </c>
@@ -23706,7 +23704,7 @@
         <v>2252.4752475247524</v>
       </c>
     </row>
-    <row r="265" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
         <v>3</v>
       </c>
@@ -23724,7 +23722,7 @@
         <v>22215.593220338982</v>
       </c>
     </row>
-    <row r="266" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
         <v>3</v>
       </c>
@@ -23742,7 +23740,7 @@
         <v>15655</v>
       </c>
     </row>
-    <row r="267" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="12" t="s">
         <v>3</v>
       </c>
@@ -23760,7 +23758,7 @@
         <v>8784.6534653465351</v>
       </c>
     </row>
-    <row r="268" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="12" t="s">
         <v>3</v>
       </c>
@@ -23778,7 +23776,7 @@
         <v>8916.725978647688</v>
       </c>
     </row>
-    <row r="269" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="12" t="s">
         <v>3</v>
       </c>
@@ -23796,7 +23794,7 @@
         <v>14405.423728813559</v>
       </c>
     </row>
-    <row r="270" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="12" t="s">
         <v>3</v>
       </c>
@@ -23814,7 +23812,7 @@
         <v>10941.666666666666</v>
       </c>
     </row>
-    <row r="271" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="12" t="s">
         <v>3</v>
       </c>
@@ -23832,7 +23830,7 @@
         <v>7207.9207920792078</v>
       </c>
     </row>
-    <row r="272" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="12" t="s">
         <v>3</v>
       </c>
@@ -23850,7 +23848,7 @@
         <v>7523.4875444839854</v>
       </c>
     </row>
-    <row r="273" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
         <v>3</v>
       </c>
@@ -23868,7 +23866,7 @@
         <v>6565</v>
       </c>
     </row>
-    <row r="274" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
         <v>3</v>
       </c>
@@ -23886,7 +23884,7 @@
         <v>4279.7029702970294</v>
       </c>
     </row>
-    <row r="275" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
         <v>3</v>
       </c>
@@ -23904,7 +23902,7 @@
         <v>5015.6583629893239</v>
       </c>
     </row>
-    <row r="276" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
         <v>3</v>
       </c>
@@ -23922,7 +23920,7 @@
         <v>14190.594059405941</v>
       </c>
     </row>
-    <row r="277" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="12" t="s">
         <v>3</v>
       </c>
@@ -23940,7 +23938,7 @@
         <v>31765.836298932383</v>
       </c>
     </row>
-    <row r="278" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="12" t="s">
         <v>3</v>
       </c>
@@ -23958,7 +23956,7 @@
         <v>5631.1881188118814</v>
       </c>
     </row>
-    <row r="279" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">
         <v>3</v>
       </c>
@@ -23976,7 +23974,7 @@
         <v>25078.291814946617</v>
       </c>
     </row>
-    <row r="280" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="16" t="s">
         <v>3</v>
       </c>
@@ -23994,7 +23992,7 @@
         <v>700.6802721088435</v>
       </c>
     </row>
-    <row r="281" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="16" t="s">
         <v>3</v>
       </c>
@@ -24012,7 +24010,7 @@
         <v>1048.951048951049</v>
       </c>
     </row>
-    <row r="282" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="16" t="s">
         <v>3</v>
       </c>
@@ -24030,7 +24028,7 @@
         <v>1280.8383233532934</v>
       </c>
     </row>
-    <row r="283" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="16" t="s">
         <v>3</v>
       </c>
@@ -24048,7 +24046,7 @@
         <v>2248.5074626865671</v>
       </c>
     </row>
-    <row r="284" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="16" t="s">
         <v>3</v>
       </c>
@@ -24066,7 +24064,7 @@
         <v>770.74829931972783</v>
       </c>
     </row>
-    <row r="285" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="16" t="s">
         <v>3</v>
       </c>
@@ -24084,7 +24082,7 @@
         <v>1331.2925170068029</v>
       </c>
     </row>
-    <row r="286" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="16" t="s">
         <v>3</v>
       </c>
@@ -24102,7 +24100,7 @@
         <v>1818.1818181818182</v>
       </c>
     </row>
-    <row r="287" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="16" t="s">
         <v>3</v>
       </c>
@@ -24120,7 +24118,7 @@
         <v>1392.2155688622756</v>
       </c>
     </row>
-    <row r="288" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="16" t="s">
         <v>3</v>
       </c>
@@ -24138,7 +24136,7 @@
         <v>2737.313432835821</v>
       </c>
     </row>
-    <row r="289" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="16" t="s">
         <v>3</v>
       </c>
@@ -24156,7 +24154,7 @@
         <v>1961.9047619047617</v>
       </c>
     </row>
-    <row r="290" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="16" t="s">
         <v>3</v>
       </c>
@@ -24174,7 +24172,7 @@
         <v>1818.1818181818185</v>
       </c>
     </row>
-    <row r="291" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="16" t="s">
         <v>3</v>
       </c>
@@ -24192,7 +24190,7 @@
         <v>1559.2814371257489</v>
       </c>
     </row>
-    <row r="292" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="16" t="s">
         <v>3</v>
       </c>
@@ -24210,7 +24208,7 @@
         <v>1857.4626865671642</v>
       </c>
     </row>
-    <row r="293" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="16" t="s">
         <v>3</v>
       </c>
@@ -24228,7 +24226,7 @@
         <v>1608.3916083916083</v>
       </c>
     </row>
-    <row r="294" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="16" t="s">
         <v>3</v>
       </c>
@@ -24246,7 +24244,7 @@
         <v>1392.2155688622754</v>
       </c>
     </row>
-    <row r="295" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="16" t="s">
         <v>3</v>
       </c>
@@ -24264,7 +24262,7 @@
         <v>1466.4179104477612</v>
       </c>
     </row>
-    <row r="296" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="16" t="s">
         <v>3</v>
       </c>
@@ -24282,7 +24280,7 @@
         <v>1821.7687074829932</v>
       </c>
     </row>
-    <row r="297" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="16" t="s">
         <v>3</v>
       </c>
@@ -24300,7 +24298,7 @@
         <v>3293.1972789115648</v>
       </c>
     </row>
-    <row r="298" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="16" t="s">
         <v>3</v>
       </c>
@@ -24318,7 +24316,7 @@
         <v>3216.783216783218</v>
       </c>
     </row>
-    <row r="299" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="16" t="s">
         <v>3</v>
       </c>
@@ -24336,7 +24334,7 @@
         <v>3007.1856287425148</v>
       </c>
     </row>
-    <row r="300" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="16" t="s">
         <v>3</v>
       </c>
@@ -24354,7 +24352,7 @@
         <v>4203.7313432835826</v>
       </c>
     </row>
-    <row r="301" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="16" t="s">
         <v>3</v>
       </c>
@@ -24372,7 +24370,7 @@
         <v>420.40816326530609</v>
       </c>
     </row>
-    <row r="302" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="16" t="s">
         <v>3</v>
       </c>
@@ -24390,7 +24388,7 @@
         <v>489.51048951048949</v>
       </c>
     </row>
-    <row r="303" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="16" t="s">
         <v>3</v>
       </c>
@@ -24408,7 +24406,7 @@
         <v>668.2634730538922</v>
       </c>
     </row>
-    <row r="304" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="16" t="s">
         <v>3</v>
       </c>
@@ -24426,7 +24424,7 @@
         <v>586.56716417910445</v>
       </c>
     </row>
-    <row r="305" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="20" t="s">
         <v>3</v>
       </c>
@@ -24444,7 +24442,7 @@
         <v>590.22222222222217</v>
       </c>
     </row>
-    <row r="306" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="20" t="s">
         <v>3</v>
       </c>
@@ -24462,7 +24460,7 @@
         <v>552.60273972602738</v>
       </c>
     </row>
-    <row r="307" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="20" t="s">
         <v>3</v>
       </c>
@@ -24480,7 +24478,7 @@
         <v>734.91358024691351</v>
       </c>
     </row>
-    <row r="308" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="20" t="s">
         <v>3</v>
       </c>
@@ -24498,7 +24496,7 @@
         <v>610.75</v>
       </c>
     </row>
-    <row r="309" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="20" t="s">
         <v>3</v>
       </c>
@@ -24516,7 +24514,7 @@
         <v>236.0888888888889</v>
       </c>
     </row>
-    <row r="310" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="20" t="s">
         <v>3</v>
       </c>
@@ -24534,7 +24532,7 @@
         <v>55.260273972602739</v>
       </c>
     </row>
-    <row r="311" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="20" t="s">
         <v>3</v>
       </c>
@@ -24552,7 +24550,7 @@
         <v>104.98765432098764</v>
       </c>
     </row>
-    <row r="312" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="20" t="s">
         <v>3</v>
       </c>
@@ -24570,7 +24568,7 @@
         <v>826.31111111111113</v>
       </c>
     </row>
-    <row r="313" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="20" t="s">
         <v>3</v>
       </c>
@@ -24588,7 +24586,7 @@
         <v>663.12328767123279</v>
       </c>
     </row>
-    <row r="314" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="20" t="s">
         <v>3</v>
       </c>
@@ -24606,7 +24604,7 @@
         <v>524.93827160493822</v>
       </c>
     </row>
-    <row r="315" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="20" t="s">
         <v>3</v>
       </c>
@@ -24624,7 +24622,7 @@
         <v>1425.0833333333335</v>
       </c>
     </row>
-    <row r="316" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="20" t="s">
         <v>3</v>
       </c>
@@ -24642,7 +24640,7 @@
         <v>1298.4888888888888</v>
       </c>
     </row>
-    <row r="317" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="20" t="s">
         <v>3</v>
       </c>
@@ -24660,7 +24658,7 @@
         <v>939.42465753424653</v>
       </c>
     </row>
-    <row r="318" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="20" t="s">
         <v>3</v>
       </c>
@@ -24678,7 +24676,7 @@
         <v>1312.3456790123455</v>
       </c>
     </row>
-    <row r="319" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="20" t="s">
         <v>3</v>
       </c>
@@ -24696,7 +24694,7 @@
         <v>916.125</v>
       </c>
     </row>
-    <row r="320" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="20" t="s">
         <v>3</v>
       </c>
@@ -24714,7 +24712,7 @@
         <v>2360.8888888888887</v>
       </c>
     </row>
-    <row r="321" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="20" t="s">
         <v>3</v>
       </c>
@@ -24732,7 +24730,7 @@
         <v>1823.5890410958903</v>
       </c>
     </row>
-    <row r="322" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="20" t="s">
         <v>3</v>
       </c>
@@ -24750,7 +24748,7 @@
         <v>1574.8148148148148</v>
       </c>
     </row>
-    <row r="323" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="20" t="s">
         <v>3</v>
       </c>
@@ -24768,7 +24766,7 @@
         <v>1934.0416666666665</v>
       </c>
     </row>
-    <row r="324" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="24" t="s">
         <v>3</v>
       </c>
@@ -24786,7 +24784,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="325" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="54" t="s">
         <v>3</v>
       </c>
@@ -24804,7 +24802,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="326" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="12" t="s">
         <v>3</v>
       </c>
@@ -24822,7 +24820,7 @@
         <v>7225.8620689655163</v>
       </c>
     </row>
-    <row r="327" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="12" t="s">
         <v>3</v>
       </c>
@@ -24840,7 +24838,7 @@
         <v>3361.1111111111109</v>
       </c>
     </row>
-    <row r="328" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="12" t="s">
         <v>3</v>
       </c>
@@ -24858,7 +24856,7 @@
         <v>4654.4850498338874</v>
       </c>
     </row>
-    <row r="329" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="12" t="s">
         <v>3</v>
       </c>
@@ -24876,7 +24874,7 @@
         <v>4619.5219123505976</v>
       </c>
     </row>
-    <row r="330" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="12" t="s">
         <v>3</v>
       </c>
@@ -24894,7 +24892,7 @@
         <v>5255.1724137931033</v>
       </c>
     </row>
-    <row r="331" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="12" t="s">
         <v>3</v>
       </c>
@@ -24912,7 +24910,7 @@
         <v>1222.2222222222222</v>
       </c>
     </row>
-    <row r="332" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
         <v>3</v>
       </c>
@@ -24930,7 +24928,7 @@
         <v>2016.9435215946846</v>
       </c>
     </row>
-    <row r="333" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="12" t="s">
         <v>3</v>
       </c>
@@ -24948,7 +24946,7 @@
         <v>1847.8087649402389</v>
       </c>
     </row>
-    <row r="334" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
         <v>3</v>
       </c>
@@ -24966,7 +24964,7 @@
         <v>6131.0344827586205</v>
       </c>
     </row>
-    <row r="335" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
         <v>3</v>
       </c>
@@ -24984,7 +24982,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="336" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
         <v>3</v>
       </c>
@@ -25002,7 +25000,7 @@
         <v>5119.9335548172758</v>
       </c>
     </row>
-    <row r="337" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
         <v>3</v>
       </c>
@@ -25020,7 +25018,7 @@
         <v>5235.4581673306784</v>
       </c>
     </row>
-    <row r="338" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
         <v>3</v>
       </c>
@@ -25038,7 +25036,7 @@
         <v>20363.793103448275</v>
       </c>
     </row>
-    <row r="339" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
         <v>3</v>
       </c>
@@ -25056,7 +25054,7 @@
         <v>17875</v>
       </c>
     </row>
-    <row r="340" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
         <v>3</v>
       </c>
@@ -25074,7 +25072,7 @@
         <v>13498.006644518269</v>
       </c>
     </row>
-    <row r="341" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="12" t="s">
         <v>3</v>
       </c>
@@ -25092,7 +25090,7 @@
         <v>10162.948207171314</v>
       </c>
     </row>
-    <row r="342" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="12" t="s">
         <v>3</v>
       </c>
@@ -25110,7 +25108,7 @@
         <v>11824.137931034484</v>
       </c>
     </row>
-    <row r="343" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="12" t="s">
         <v>3</v>
       </c>
@@ -25128,7 +25126,7 @@
         <v>13291.666666666666</v>
       </c>
     </row>
-    <row r="344" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="12" t="s">
         <v>3</v>
       </c>
@@ -25146,7 +25144,7 @@
         <v>13653.156146179403</v>
       </c>
     </row>
-    <row r="345" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="12" t="s">
         <v>3</v>
       </c>
@@ -25164,7 +25162,7 @@
         <v>8315.139442231075</v>
       </c>
     </row>
-    <row r="346" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="12" t="s">
         <v>3</v>
       </c>
@@ -25182,7 +25180,7 @@
         <v>2947.8405315614618</v>
       </c>
     </row>
-    <row r="347" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="12" t="s">
         <v>3</v>
       </c>
@@ -25200,7 +25198,7 @@
         <v>18478.087649402391</v>
       </c>
     </row>
-    <row r="348" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="12" t="s">
         <v>3</v>
       </c>
@@ -25218,7 +25216,7 @@
         <v>4809.6345514950171</v>
       </c>
     </row>
-    <row r="349" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="12" t="s">
         <v>3</v>
       </c>
@@ -25236,7 +25234,7 @@
         <v>12934.661354581674</v>
       </c>
     </row>
-    <row r="350" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="12" t="s">
         <v>3</v>
       </c>
@@ -25254,7 +25252,7 @@
         <v>15706.374501992032</v>
       </c>
     </row>
-    <row r="351" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="16" t="s">
         <v>3</v>
       </c>
@@ -25272,7 +25270,7 @@
         <v>716.77852348993281</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="16" t="s">
         <v>3</v>
       </c>
@@ -25290,7 +25288,7 @@
         <v>1553.020134228188</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="16" t="s">
         <v>3</v>
       </c>
@@ -25308,7 +25306,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="16" t="s">
         <v>3</v>
       </c>
@@ -25326,7 +25324,7 @@
         <v>1471.4285714285713</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="16" t="s">
         <v>3</v>
       </c>
@@ -25344,7 +25342,7 @@
         <v>2675.6756756756763</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="16" t="s">
         <v>3</v>
       </c>
@@ -25362,7 +25360,7 @@
         <v>1433.5570469798656</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="16" t="s">
         <v>3</v>
       </c>
@@ -25380,7 +25378,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="16" t="s">
         <v>3</v>
       </c>
@@ -25398,7 +25396,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="16" t="s">
         <v>3</v>
       </c>
@@ -25416,7 +25414,7 @@
         <v>2942.8571428571427</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="16" t="s">
         <v>3</v>
       </c>
@@ -25434,7 +25432,7 @@
         <v>2140.5405405405409</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="16" t="s">
         <v>3</v>
       </c>
@@ -25452,7 +25450,7 @@
         <v>1612.7516778523488</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="16" t="s">
         <v>3</v>
       </c>
@@ -25470,7 +25468,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="16" t="s">
         <v>3</v>
       </c>
@@ -25488,7 +25486,7 @@
         <v>2603.2967032967031</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="16" t="s">
         <v>3</v>
       </c>
@@ -25506,7 +25504,7 @@
         <v>2497.2972972972975</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="16" t="s">
         <v>3</v>
       </c>
@@ -25524,7 +25522,7 @@
         <v>418.12080536912748</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="16" t="s">
         <v>3</v>
       </c>
@@ -25542,7 +25540,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="16" t="s">
         <v>3</v>
       </c>
@@ -25560,7 +25558,7 @@
         <v>2716.4835164835167</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="16" t="s">
         <v>3</v>
       </c>
@@ -25578,7 +25576,7 @@
         <v>4548.6486486486483</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="16" t="s">
         <v>3</v>
       </c>
@@ -25596,7 +25594,7 @@
         <v>2628.1879194630869</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="16" t="s">
         <v>3</v>
       </c>
@@ -25614,7 +25612,7 @@
         <v>537.58389261744958</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="16" t="s">
         <v>3</v>
       </c>
@@ -25632,7 +25630,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="16" t="s">
         <v>3</v>
       </c>
@@ -25650,7 +25648,7 @@
         <v>565.93406593406587</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="16" t="s">
         <v>3</v>
       </c>
@@ -25668,7 +25666,7 @@
         <v>1337.8378378378379</v>
       </c>
     </row>
-    <row r="374" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="20" t="s">
         <v>3</v>
       </c>
@@ -25686,7 +25684,7 @@
         <v>964.56410256410254</v>
       </c>
     </row>
-    <row r="375" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="20" t="s">
         <v>3</v>
       </c>
@@ -25704,7 +25702,7 @@
         <v>787.3125</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="20" t="s">
         <v>3</v>
       </c>
@@ -25722,7 +25720,7 @@
         <v>311.01449275362319</v>
       </c>
     </row>
-    <row r="377" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="20" t="s">
         <v>3</v>
       </c>
@@ -25740,7 +25738,7 @@
         <v>1170.8695652173913</v>
       </c>
     </row>
-    <row r="378" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="20" t="s">
         <v>3</v>
       </c>
@@ -25758,7 +25756,7 @@
         <v>206.69230769230771</v>
       </c>
     </row>
-    <row r="379" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="20" t="s">
         <v>3</v>
       </c>
@@ -25776,7 +25774,7 @@
         <v>65.609375</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="20" t="s">
         <v>3</v>
       </c>
@@ -25794,7 +25792,7 @@
         <v>62.20289855072464</v>
       </c>
     </row>
-    <row r="381" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="20" t="s">
         <v>3</v>
       </c>
@@ -25812,7 +25810,7 @@
         <v>137.7948717948718</v>
       </c>
     </row>
-    <row r="382" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="20" t="s">
         <v>3</v>
       </c>
@@ -25830,7 +25828,7 @@
         <v>65.609375</v>
       </c>
     </row>
-    <row r="383" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="20" t="s">
         <v>3</v>
       </c>
@@ -25848,7 +25846,7 @@
         <v>186.60869565217391</v>
       </c>
     </row>
-    <row r="384" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="20" t="s">
         <v>3</v>
       </c>
@@ -25866,7 +25864,7 @@
         <v>117.08695652173913</v>
       </c>
     </row>
-    <row r="385" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="20" t="s">
         <v>3</v>
       </c>
@@ -25884,7 +25882,7 @@
         <v>895.66666666666663</v>
       </c>
     </row>
-    <row r="386" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="20" t="s">
         <v>3</v>
       </c>
@@ -25902,7 +25900,7 @@
         <v>787.3125</v>
       </c>
     </row>
-    <row r="387" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="20" t="s">
         <v>3</v>
       </c>
@@ -25920,7 +25918,7 @@
         <v>746.43478260869563</v>
       </c>
     </row>
-    <row r="388" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="20" t="s">
         <v>3</v>
       </c>
@@ -25938,7 +25936,7 @@
         <v>819.60869565217399</v>
       </c>
     </row>
-    <row r="389" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="20" t="s">
         <v>3</v>
       </c>
@@ -25956,7 +25954,7 @@
         <v>757.87179487179492</v>
       </c>
     </row>
-    <row r="390" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="20" t="s">
         <v>3</v>
       </c>
@@ -25974,7 +25972,7 @@
         <v>590.484375</v>
       </c>
     </row>
-    <row r="391" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="20" t="s">
         <v>3</v>
       </c>
@@ -25992,7 +25990,7 @@
         <v>1368.463768115942</v>
       </c>
     </row>
-    <row r="392" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="20" t="s">
         <v>3</v>
       </c>
@@ -26010,7 +26008,7 @@
         <v>1170.8695652173913</v>
       </c>
     </row>
-    <row r="393" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="20" t="s">
         <v>3</v>
       </c>
@@ -26028,7 +26026,7 @@
         <v>2411.4102564102564</v>
       </c>
     </row>
-    <row r="394" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="20" t="s">
         <v>3</v>
       </c>
@@ -26046,7 +26044,7 @@
         <v>1902.671875</v>
       </c>
     </row>
-    <row r="395" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="20" t="s">
         <v>3</v>
       </c>
@@ -26064,7 +26062,7 @@
         <v>1617.2753623188405</v>
       </c>
     </row>
-    <row r="396" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="20" t="s">
         <v>3</v>
       </c>
@@ -26082,7 +26080,7 @@
         <v>2107.5652173913045</v>
       </c>
     </row>
-    <row r="397" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="24" t="s">
         <v>3</v>
       </c>
@@ -26100,7 +26098,7 @@
         <v>17700</v>
       </c>
     </row>
-    <row r="398" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="54" t="s">
         <v>3</v>
       </c>
@@ -26118,7 +26116,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="399" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="12" t="s">
         <v>3</v>
       </c>
@@ -26136,7 +26134,7 @@
         <v>4818.461538461539</v>
       </c>
     </row>
-    <row r="400" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="12" t="s">
         <v>3</v>
       </c>
@@ -26154,7 +26152,7 @@
         <v>3348.6486486486488</v>
       </c>
     </row>
-    <row r="401" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="12" t="s">
         <v>3</v>
       </c>
@@ -26172,7 +26170,7 @@
         <v>3458.0645161290322</v>
       </c>
     </row>
-    <row r="402" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="12" t="s">
         <v>3</v>
       </c>
@@ -26190,7 +26188,7 @@
         <v>2007.6923076923078</v>
       </c>
     </row>
-    <row r="403" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="12" t="s">
         <v>3</v>
       </c>
@@ -26208,7 +26206,7 @@
         <v>1116.2162162162163</v>
       </c>
     </row>
-    <row r="404" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="12" t="s">
         <v>3</v>
       </c>
@@ -26226,7 +26224,7 @@
         <v>2377.4193548387098</v>
       </c>
     </row>
-    <row r="405" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="12" t="s">
         <v>3</v>
       </c>
@@ -26244,7 +26242,7 @@
         <v>4015.3846153846157</v>
       </c>
     </row>
-    <row r="406" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="12" t="s">
         <v>3</v>
       </c>
@@ -26262,7 +26260,7 @@
         <v>3348.6486486486488</v>
       </c>
     </row>
-    <row r="407" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="12" t="s">
         <v>3</v>
       </c>
@@ -26280,7 +26278,7 @@
         <v>2593.5483870967741</v>
       </c>
     </row>
-    <row r="408" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="12" t="s">
         <v>3</v>
       </c>
@@ -26298,7 +26296,7 @@
         <v>5822.3076923076924</v>
       </c>
     </row>
-    <row r="409" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="12" t="s">
         <v>3</v>
       </c>
@@ -26316,7 +26314,7 @@
         <v>6697.2972972972975</v>
       </c>
     </row>
-    <row r="410" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="12" t="s">
         <v>3</v>
       </c>
@@ -26334,7 +26332,7 @@
         <v>4970.9677419354839</v>
       </c>
     </row>
-    <row r="411" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="12" t="s">
         <v>3</v>
       </c>
@@ -26352,7 +26350,7 @@
         <v>4513.7055837563457</v>
       </c>
     </row>
-    <row r="412" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="12" t="s">
         <v>3</v>
       </c>
@@ -26370,7 +26368,7 @@
         <v>3814.6153846153848</v>
       </c>
     </row>
-    <row r="413" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="12" t="s">
         <v>3</v>
       </c>
@@ -26388,7 +26386,7 @@
         <v>4241.6216216216217</v>
       </c>
     </row>
-    <row r="414" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="12" t="s">
         <v>3</v>
       </c>
@@ -26406,7 +26404,7 @@
         <v>4322.5806451612907</v>
       </c>
     </row>
-    <row r="415" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="12" t="s">
         <v>3</v>
       </c>
@@ -26424,7 +26422,7 @@
         <v>2083.2487309644671</v>
       </c>
     </row>
-    <row r="416" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="12" t="s">
         <v>3</v>
       </c>
@@ -26442,7 +26440,7 @@
         <v>12246.923076923076</v>
       </c>
     </row>
-    <row r="417" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="12" t="s">
         <v>3</v>
       </c>
@@ -26460,7 +26458,7 @@
         <v>5581.0810810810817</v>
       </c>
     </row>
-    <row r="418" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="12" t="s">
         <v>3</v>
       </c>
@@ -26478,7 +26476,7 @@
         <v>7348.3870967741932</v>
       </c>
     </row>
-    <row r="419" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="12" t="s">
         <v>3</v>
       </c>
@@ -26496,7 +26494,7 @@
         <v>8680.203045685279</v>
       </c>
     </row>
-    <row r="420" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="12" t="s">
         <v>3</v>
       </c>
@@ -26514,7 +26512,7 @@
         <v>11243.076923076924</v>
       </c>
     </row>
-    <row r="421" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="12" t="s">
         <v>3</v>
       </c>
@@ -26532,7 +26530,7 @@
         <v>9822.7027027027034</v>
       </c>
     </row>
-    <row r="422" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="12" t="s">
         <v>3</v>
       </c>
@@ -26550,7 +26548,7 @@
         <v>7780.6451612903211</v>
       </c>
     </row>
-    <row r="423" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="12" t="s">
         <v>3</v>
       </c>
@@ -26568,7 +26566,7 @@
         <v>8680.203045685279</v>
       </c>
     </row>
-    <row r="424" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="12" t="s">
         <v>3</v>
       </c>
@@ -26586,7 +26584,7 @@
         <v>8231.5384615384628</v>
       </c>
     </row>
-    <row r="425" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="12" t="s">
         <v>3</v>
       </c>
@@ -26604,7 +26602,7 @@
         <v>7143.7837837837842</v>
       </c>
     </row>
-    <row r="426" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="12" t="s">
         <v>3</v>
       </c>
@@ -26622,7 +26620,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="427" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="12" t="s">
         <v>3</v>
       </c>
@@ -26640,7 +26638,7 @@
         <v>3674.1935483870966</v>
       </c>
     </row>
-    <row r="428" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="12" t="s">
         <v>3</v>
       </c>
@@ -26658,7 +26656,7 @@
         <v>5555.3299492385786</v>
       </c>
     </row>
-    <row r="429" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="12" t="s">
         <v>3</v>
       </c>
@@ -26676,7 +26674,7 @@
         <v>3674.1935483870971</v>
       </c>
     </row>
-    <row r="430" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="12" t="s">
         <v>3</v>
       </c>
@@ -26694,7 +26692,7 @@
         <v>12152.284263959391</v>
       </c>
     </row>
-    <row r="431" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="12" t="s">
         <v>3</v>
       </c>
@@ -26712,7 +26710,7 @@
         <v>26735.025380710656</v>
       </c>
     </row>
-    <row r="432" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="16" t="s">
         <v>3</v>
       </c>
@@ -26730,7 +26728,7 @@
         <v>1695.6521739130437</v>
       </c>
     </row>
-    <row r="433" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="16" t="s">
         <v>3</v>
       </c>
@@ -26748,7 +26746,7 @@
         <v>2115.7232704402513</v>
       </c>
     </row>
-    <row r="434" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="16" t="s">
         <v>3</v>
       </c>
@@ -26766,7 +26764,7 @@
         <v>1676.5432098765432</v>
       </c>
     </row>
-    <row r="435" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="16" t="s">
         <v>3</v>
       </c>
@@ -26784,7 +26782,7 @@
         <v>1790.1234567901233</v>
       </c>
     </row>
-    <row r="436" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="16" t="s">
         <v>3</v>
       </c>
@@ -26800,7 +26798,7 @@
       </c>
       <c r="E436" s="19"/>
     </row>
-    <row r="437" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="16" t="s">
         <v>3</v>
       </c>
@@ -26818,7 +26816,7 @@
         <v>4251.2345679012342</v>
       </c>
     </row>
-    <row r="438" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="16" t="s">
         <v>3</v>
       </c>
@@ -26836,7 +26834,7 @@
         <v>6712.9629629629626</v>
       </c>
     </row>
-    <row r="439" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="16" t="s">
         <v>3</v>
       </c>
@@ -26854,7 +26852,7 @@
         <v>1921.7391304347825</v>
       </c>
     </row>
-    <row r="440" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="16" t="s">
         <v>3</v>
       </c>
@@ -26872,7 +26870,7 @@
         <v>2553.4591194968552</v>
       </c>
     </row>
-    <row r="441" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="16" t="s">
         <v>3</v>
       </c>
@@ -26890,7 +26888,7 @@
         <v>1676.5432098765432</v>
       </c>
     </row>
-    <row r="442" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="16" t="s">
         <v>3</v>
       </c>
@@ -26908,7 +26906,7 @@
         <v>1700.6172839506171</v>
       </c>
     </row>
-    <row r="443" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="16" t="s">
         <v>3</v>
       </c>
@@ -26926,7 +26924,7 @@
         <v>1413.0434782608695</v>
       </c>
     </row>
-    <row r="444" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="16" t="s">
         <v>3</v>
       </c>
@@ -26944,7 +26942,7 @@
         <v>2115.7232704402513</v>
       </c>
     </row>
-    <row r="445" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="16" t="s">
         <v>3</v>
       </c>
@@ -26962,7 +26960,7 @@
         <v>1137.6543209876543</v>
       </c>
     </row>
-    <row r="446" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="16" t="s">
         <v>3</v>
       </c>
@@ -26980,7 +26978,7 @@
         <v>1253.0864197530864</v>
       </c>
     </row>
-    <row r="447" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="16" t="s">
         <v>3</v>
       </c>
@@ -26998,7 +26996,7 @@
         <v>1879.6296296296296</v>
       </c>
     </row>
-    <row r="448" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="16" t="s">
         <v>3</v>
       </c>
@@ -27016,7 +27014,7 @@
         <v>2656.5217391304354</v>
       </c>
     </row>
-    <row r="449" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A449" s="16" t="s">
         <v>3</v>
       </c>
@@ -27034,7 +27032,7 @@
         <v>3647.7987421383646</v>
       </c>
     </row>
-    <row r="450" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A450" s="16" t="s">
         <v>3</v>
       </c>
@@ -27052,7 +27050,7 @@
         <v>1413.0434782608697</v>
       </c>
     </row>
-    <row r="451" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A451" s="16" t="s">
         <v>3</v>
       </c>
@@ -27070,7 +27068,7 @@
         <v>1167.2955974842766</v>
       </c>
     </row>
-    <row r="452" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="16" t="s">
         <v>3</v>
       </c>
@@ -27088,7 +27086,7 @@
         <v>958.0246913580246</v>
       </c>
     </row>
-    <row r="453" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="16" t="s">
         <v>3</v>
       </c>
@@ -27106,7 +27104,7 @@
         <v>1163.5802469135801</v>
       </c>
     </row>
-    <row r="454" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="20" t="s">
         <v>3</v>
       </c>
@@ -27124,7 +27122,7 @@
         <v>185.89090909090908</v>
       </c>
     </row>
-    <row r="455" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="20" t="s">
         <v>3</v>
       </c>
@@ -27142,7 +27140,7 @@
         <v>556.09090909090901</v>
       </c>
     </row>
-    <row r="456" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="20" t="s">
         <v>3</v>
       </c>
@@ -27160,7 +27158,7 @@
         <v>492.35294117647061</v>
       </c>
     </row>
-    <row r="457" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="20" t="s">
         <v>3</v>
       </c>
@@ -27178,7 +27176,7 @@
         <v>588.77777777777771</v>
       </c>
     </row>
-    <row r="458" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A458" s="20" t="s">
         <v>3</v>
       </c>
@@ -27196,7 +27194,7 @@
         <v>308.93939393939394</v>
       </c>
     </row>
-    <row r="459" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A459" s="20" t="s">
         <v>3</v>
       </c>
@@ -27214,7 +27212,7 @@
         <v>273.52941176470591</v>
       </c>
     </row>
-    <row r="460" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="20" t="s">
         <v>3</v>
       </c>
@@ -27232,7 +27230,7 @@
         <v>252.33333333333331</v>
       </c>
     </row>
-    <row r="461" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A461" s="20" t="s">
         <v>3</v>
       </c>
@@ -27250,7 +27248,7 @@
         <v>61.787878787878789</v>
       </c>
     </row>
-    <row r="462" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A462" s="20" t="s">
         <v>3</v>
       </c>
@@ -27268,7 +27266,7 @@
         <v>185.89090909090908</v>
       </c>
     </row>
-    <row r="463" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A463" s="20" t="s">
         <v>3</v>
       </c>
@@ -27286,7 +27284,7 @@
         <v>61.787878787878789</v>
       </c>
     </row>
-    <row r="464" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="20" t="s">
         <v>3</v>
       </c>
@@ -27304,7 +27302,7 @@
         <v>84.1111111111111</v>
       </c>
     </row>
-    <row r="465" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" s="20" t="s">
         <v>3</v>
       </c>
@@ -27322,7 +27320,7 @@
         <v>650.61818181818171</v>
       </c>
     </row>
-    <row r="466" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="20" t="s">
         <v>3</v>
       </c>
@@ -27340,7 +27338,7 @@
         <v>494.30303030303031</v>
       </c>
     </row>
-    <row r="467" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="20" t="s">
         <v>3</v>
       </c>
@@ -27358,7 +27356,7 @@
         <v>656.47058823529414</v>
       </c>
     </row>
-    <row r="468" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="20" t="s">
         <v>3</v>
       </c>
@@ -27376,7 +27374,7 @@
         <v>925.22222222222217</v>
       </c>
     </row>
-    <row r="469" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="20" t="s">
         <v>3</v>
       </c>
@@ -27394,7 +27392,7 @@
         <v>1115.3454545454545</v>
       </c>
     </row>
-    <row r="470" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" s="20" t="s">
         <v>3</v>
       </c>
@@ -27412,7 +27410,7 @@
         <v>1050.3939393939393</v>
       </c>
     </row>
-    <row r="471" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A471" s="20" t="s">
         <v>3</v>
       </c>
@@ -27430,7 +27428,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="472" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A472" s="20" t="s">
         <v>3</v>
       </c>
@@ -27448,7 +27446,7 @@
         <v>1093.4444444444443</v>
       </c>
     </row>
-    <row r="473" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A473" s="20" t="s">
         <v>3</v>
       </c>
@@ -27466,7 +27464,7 @@
         <v>2974.2545454545452</v>
       </c>
     </row>
-    <row r="474" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A474" s="20" t="s">
         <v>3</v>
       </c>
@@ -27484,7 +27482,7 @@
         <v>1544.6969696969697</v>
       </c>
     </row>
-    <row r="475" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="20" t="s">
         <v>3</v>
       </c>
@@ -27502,7 +27500,7 @@
         <v>1367.6470588235295</v>
       </c>
     </row>
-    <row r="476" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="20" t="s">
         <v>3</v>
       </c>
@@ -27520,7 +27518,7 @@
         <v>2355.1111111111109</v>
       </c>
     </row>
-    <row r="477" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="24" t="s">
         <v>3</v>
       </c>
@@ -27538,7 +27536,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="478" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A478" s="54" t="s">
         <v>3</v>
       </c>
@@ -27556,7 +27554,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="479" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" s="12" t="s">
         <v>3</v>
       </c>
@@ -27574,7 +27572,7 @@
         <v>4087.7005347593586</v>
       </c>
     </row>
-    <row r="480" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" s="12" t="s">
         <v>3</v>
       </c>
@@ -27592,7 +27590,7 @@
         <v>2614.3646408839777</v>
       </c>
     </row>
-    <row r="481" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" s="12" t="s">
         <v>3</v>
       </c>
@@ -27610,7 +27608,7 @@
         <v>3698.4126984126983</v>
       </c>
     </row>
-    <row r="482" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="12" t="s">
         <v>3</v>
       </c>
@@ -27628,7 +27626,7 @@
         <v>2725.1336898395716</v>
       </c>
     </row>
-    <row r="483" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="12" t="s">
         <v>3</v>
       </c>
@@ -27646,7 +27644,7 @@
         <v>1493.9226519337017</v>
       </c>
     </row>
-    <row r="484" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="12" t="s">
         <v>3</v>
       </c>
@@ -27664,7 +27662,7 @@
         <v>3698.4126984126983</v>
       </c>
     </row>
-    <row r="485" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="12" t="s">
         <v>3</v>
       </c>
@@ -27682,7 +27680,7 @@
         <v>3698.3957219251342</v>
       </c>
     </row>
-    <row r="486" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="12" t="s">
         <v>3</v>
       </c>
@@ -27700,7 +27698,7 @@
         <v>3734.8066298342542</v>
       </c>
     </row>
-    <row r="487" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="12" t="s">
         <v>3</v>
       </c>
@@ -27718,7 +27716,7 @@
         <v>3883.333333333333</v>
       </c>
     </row>
-    <row r="488" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="12" t="s">
         <v>3</v>
       </c>
@@ -27736,7 +27734,7 @@
         <v>4282.3529411764703</v>
       </c>
     </row>
-    <row r="489" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A489" s="12" t="s">
         <v>3</v>
       </c>
@@ -27754,7 +27752,7 @@
         <v>3361.3259668508285</v>
       </c>
     </row>
-    <row r="490" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A490" s="12" t="s">
         <v>3</v>
       </c>
@@ -27772,7 +27770,7 @@
         <v>4253.1746031746034</v>
       </c>
     </row>
-    <row r="491" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="12" t="s">
         <v>3</v>
       </c>
@@ -27790,7 +27788,7 @@
         <v>2530.4812834224599</v>
       </c>
     </row>
-    <row r="492" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="12" t="s">
         <v>3</v>
       </c>
@@ -27808,7 +27806,7 @@
         <v>3361.3259668508285</v>
       </c>
     </row>
-    <row r="493" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="12" t="s">
         <v>3</v>
       </c>
@@ -27826,7 +27824,7 @@
         <v>2219.0476190476188</v>
       </c>
     </row>
-    <row r="494" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="12" t="s">
         <v>3</v>
       </c>
@@ -27844,7 +27842,7 @@
         <v>5060.9625668449198</v>
       </c>
     </row>
-    <row r="495" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="12" t="s">
         <v>3</v>
       </c>
@@ -27862,7 +27860,7 @@
         <v>3174.5856353591157</v>
       </c>
     </row>
-    <row r="496" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="12" t="s">
         <v>3</v>
       </c>
@@ -27880,7 +27878,7 @@
         <v>2958.7301587301586</v>
       </c>
     </row>
-    <row r="497" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="12" t="s">
         <v>3</v>
       </c>
@@ -27898,7 +27896,7 @@
         <v>14014.973262032085</v>
       </c>
     </row>
-    <row r="498" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="51" t="s">
         <v>3</v>
       </c>
@@ -27916,7 +27914,7 @@
         <v>16059.668508287294</v>
       </c>
     </row>
-    <row r="499" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="51" t="s">
         <v>3</v>
       </c>
@@ -27934,7 +27932,7 @@
         <v>16827.777777777777</v>
       </c>
     </row>
-    <row r="500" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="51" t="s">
         <v>3</v>
       </c>
@@ -27952,7 +27950,7 @@
         <v>4438.0952380952376</v>
       </c>
     </row>
-    <row r="501" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="51" t="s">
         <v>3</v>
       </c>
@@ -27970,7 +27968,7 @@
         <v>2773.8095238095239</v>
       </c>
     </row>
-    <row r="502" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="51" t="s">
         <v>3</v>
       </c>
@@ -27988,7 +27986,7 @@
         <v>1849.2063492063492</v>
       </c>
     </row>
-    <row r="503" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="55" t="s">
         <v>3</v>
       </c>
@@ -28006,7 +28004,7 @@
         <v>1180.1324503311262</v>
       </c>
     </row>
-    <row r="504" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="55" t="s">
         <v>3</v>
       </c>
@@ -28024,7 +28022,7 @@
         <v>2093.6170212765956</v>
       </c>
     </row>
-    <row r="505" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="55" t="s">
         <v>3</v>
       </c>
@@ -28042,7 +28040,7 @@
         <v>1636.4963503649635</v>
       </c>
     </row>
-    <row r="506" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="55" t="s">
         <v>3</v>
       </c>
@@ -28060,7 +28058,7 @@
         <v>2425.8278145695363</v>
       </c>
     </row>
-    <row r="507" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="55" t="s">
         <v>3</v>
       </c>
@@ -28078,7 +28076,7 @@
         <v>2878.7234042553196</v>
       </c>
     </row>
-    <row r="508" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="55" t="s">
         <v>3</v>
       </c>
@@ -28096,7 +28094,7 @@
         <v>2239.4160583941602</v>
       </c>
     </row>
-    <row r="509" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="55" t="s">
         <v>3</v>
       </c>
@@ -28114,7 +28112,7 @@
         <v>1507.9470198675499</v>
       </c>
     </row>
-    <row r="510" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="55" t="s">
         <v>3</v>
       </c>
@@ -28132,7 +28130,7 @@
         <v>1311.2582781456954</v>
       </c>
     </row>
-    <row r="511" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="55" t="s">
         <v>3</v>
       </c>
@@ -28150,7 +28148,7 @@
         <v>2529.7872340425533</v>
       </c>
     </row>
-    <row r="512" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="55" t="s">
         <v>3</v>
       </c>
@@ -28168,7 +28166,7 @@
         <v>861.31386861313877</v>
       </c>
     </row>
-    <row r="513" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="55" t="s">
         <v>3</v>
       </c>
@@ -28186,7 +28184,7 @@
         <v>1507.9470198675499</v>
       </c>
     </row>
-    <row r="514" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="55" t="s">
         <v>3</v>
       </c>
@@ -28204,7 +28202,7 @@
         <v>1744.6808510638296</v>
       </c>
     </row>
-    <row r="515" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="55" t="s">
         <v>3</v>
       </c>
@@ -28222,7 +28220,7 @@
         <v>2842.3357664233577</v>
       </c>
     </row>
-    <row r="516" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="55" t="s">
         <v>3</v>
       </c>
@@ -28240,7 +28238,7 @@
         <v>1507.9470198675497</v>
       </c>
     </row>
-    <row r="517" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="55" t="s">
         <v>3</v>
       </c>
@@ -28258,7 +28256,7 @@
         <v>2355.3191489361693</v>
       </c>
     </row>
-    <row r="518" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="55" t="s">
         <v>3</v>
       </c>
@@ -28276,7 +28274,7 @@
         <v>3531.3868613138684</v>
       </c>
     </row>
-    <row r="519" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="55" t="s">
         <v>3</v>
       </c>
@@ -28294,7 +28292,7 @@
         <v>458.94039735099341</v>
       </c>
     </row>
-    <row r="520" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="55" t="s">
         <v>3</v>
       </c>
@@ -28312,7 +28310,7 @@
         <v>697.87234042553189</v>
       </c>
     </row>
-    <row r="521" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="55" t="s">
         <v>3</v>
       </c>
@@ -28330,7 +28328,7 @@
         <v>689.05109489051085</v>
       </c>
     </row>
-    <row r="522" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A522" s="53" t="s">
         <v>3</v>
       </c>
@@ -28348,7 +28346,7 @@
         <v>486.07777777777778</v>
       </c>
     </row>
-    <row r="523" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A523" s="53" t="s">
         <v>3</v>
       </c>
@@ -28366,7 +28364,7 @@
         <v>472.30909090909086</v>
       </c>
     </row>
-    <row r="524" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A524" s="53" t="s">
         <v>3</v>
       </c>
@@ -28384,7 +28382,7 @@
         <v>790.29577464788724</v>
       </c>
     </row>
-    <row r="525" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="53" t="s">
         <v>3</v>
       </c>
@@ -28402,7 +28400,7 @@
         <v>309.32222222222225</v>
       </c>
     </row>
-    <row r="526" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="53" t="s">
         <v>3</v>
       </c>
@@ -28420,7 +28418,7 @@
         <v>404.83636363636361</v>
       </c>
     </row>
-    <row r="527" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="53" t="s">
         <v>3</v>
       </c>
@@ -28438,7 +28436,7 @@
         <v>431.07042253521126</v>
       </c>
     </row>
-    <row r="528" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A528" s="53" t="s">
         <v>3</v>
       </c>
@@ -28456,7 +28454,7 @@
         <v>132.56666666666666</v>
       </c>
     </row>
-    <row r="529" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="53" t="s">
         <v>3</v>
       </c>
@@ -28474,7 +28472,7 @@
         <v>215.53521126760563</v>
       </c>
     </row>
-    <row r="530" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A530" s="53" t="s">
         <v>3</v>
       </c>
@@ -28492,7 +28490,7 @@
         <v>176.75555555555556</v>
       </c>
     </row>
-    <row r="531" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="53" t="s">
         <v>3</v>
       </c>
@@ -28510,7 +28508,7 @@
         <v>71.845070422535215</v>
       </c>
     </row>
-    <row r="532" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A532" s="53" t="s">
         <v>3</v>
       </c>
@@ -28528,7 +28526,7 @@
         <v>574.45555555555552</v>
       </c>
     </row>
-    <row r="533" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A533" s="53" t="s">
         <v>3</v>
       </c>
@@ -28546,7 +28544,7 @@
         <v>202.41818181818181</v>
       </c>
     </row>
-    <row r="534" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A534" s="53" t="s">
         <v>3</v>
       </c>
@@ -28564,7 +28562,7 @@
         <v>933.98591549295782</v>
       </c>
     </row>
-    <row r="535" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A535" s="22" t="s">
         <v>3</v>
       </c>
@@ -28582,7 +28580,7 @@
         <v>662.83333333333326</v>
       </c>
     </row>
-    <row r="536" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A536" s="22" t="s">
         <v>3</v>
       </c>
@@ -28600,7 +28598,7 @@
         <v>1012.090909090909</v>
       </c>
     </row>
-    <row r="537" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A537" s="22" t="s">
         <v>3</v>
       </c>
@@ -28618,7 +28616,7 @@
         <v>933.98591549295782</v>
       </c>
     </row>
-    <row r="538" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A538" s="22" t="s">
         <v>3</v>
       </c>
@@ -28636,7 +28634,7 @@
         <v>1634.9888888888888</v>
       </c>
     </row>
-    <row r="539" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="22" t="s">
         <v>3</v>
       </c>
@@ -28654,7 +28652,7 @@
         <v>1619.3454545454545</v>
       </c>
     </row>
-    <row r="540" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A540" s="22" t="s">
         <v>3</v>
       </c>
@@ -28693,16 +28691,16 @@
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="2" width="22.09765625" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="28.296875" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" customWidth="1"/>
+    <col min="6" max="6" width="50.69921875" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>181</v>
       </c>
@@ -28722,7 +28720,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="40">
         <v>200701</v>
       </c>
@@ -28734,7 +28732,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="40">
         <v>201006</v>
       </c>
@@ -28748,7 +28746,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <v>201106</v>
       </c>
@@ -28764,7 +28762,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="40">
         <v>201209</v>
       </c>
@@ -28780,7 +28778,7 @@
       </c>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <v>201310</v>
       </c>
@@ -28796,7 +28794,7 @@
       </c>
       <c r="F6" s="42"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>201409</v>
       </c>
@@ -28810,7 +28808,7 @@
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <v>201506</v>
       </c>
@@ -28822,7 +28820,7 @@
       <c r="E8" s="41"/>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.3">
       <c r="A9" s="40">
         <v>201603</v>
       </c>
@@ -28838,7 +28836,7 @@
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
     </row>
-    <row r="10" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>201609</v>
       </c>
@@ -28852,7 +28850,7 @@
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
     </row>
-    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>201610</v>
       </c>
@@ -28864,7 +28862,7 @@
       </c>
       <c r="F11" s="42"/>
     </row>
-    <row r="12" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>201709</v>
       </c>
@@ -28878,7 +28876,7 @@
       <c r="E12" s="41"/>
       <c r="F12" s="42"/>
     </row>
-    <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>201809</v>
       </c>
@@ -28892,7 +28890,7 @@
       <c r="E13" s="41"/>
       <c r="F13" s="42"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>201903</v>
       </c>
@@ -28902,7 +28900,7 @@
       <c r="E14" s="41"/>
       <c r="F14" s="42"/>
     </row>
-    <row r="15" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>201906</v>
       </c>
